--- a/data-raw/paez.coffee.uniformity.xlsx
+++ b/data-raw/paez.coffee.uniformity.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="0" windowWidth="9588" windowHeight="8988"/>
+    <workbookView xWindow="5100" yWindow="0" windowWidth="8568" windowHeight="8988"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,8 +401,8 @@
   <dimension ref="A1:H839"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A552" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D572" sqref="D572"/>
+      <pane ySplit="1" topLeftCell="A809" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H840" sqref="H840:H853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15259,6 +15259,21 @@
       <c r="C572" s="2">
         <v>13</v>
       </c>
+      <c r="D572">
+        <v>80</v>
+      </c>
+      <c r="E572">
+        <v>192</v>
+      </c>
+      <c r="F572">
+        <v>18</v>
+      </c>
+      <c r="G572">
+        <v>74</v>
+      </c>
+      <c r="H572">
+        <v>36</v>
+      </c>
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
@@ -15270,6 +15285,21 @@
       <c r="C573" s="2">
         <v>13</v>
       </c>
+      <c r="D573">
+        <v>114</v>
+      </c>
+      <c r="E573">
+        <v>50</v>
+      </c>
+      <c r="F573">
+        <v>47</v>
+      </c>
+      <c r="G573">
+        <v>74</v>
+      </c>
+      <c r="H573">
+        <v>90</v>
+      </c>
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
@@ -15281,6 +15311,18 @@
       <c r="C574" s="2">
         <v>13</v>
       </c>
+      <c r="D574">
+        <v>142</v>
+      </c>
+      <c r="E574">
+        <v>54</v>
+      </c>
+      <c r="F574">
+        <v>147</v>
+      </c>
+      <c r="G574">
+        <v>29</v>
+      </c>
     </row>
     <row r="575" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
@@ -15292,6 +15334,21 @@
       <c r="C575" s="2">
         <v>13</v>
       </c>
+      <c r="D575">
+        <v>136</v>
+      </c>
+      <c r="E575">
+        <v>62</v>
+      </c>
+      <c r="F575">
+        <v>108</v>
+      </c>
+      <c r="G575">
+        <v>50</v>
+      </c>
+      <c r="H575">
+        <v>91</v>
+      </c>
     </row>
     <row r="576" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
@@ -15303,8 +15360,23 @@
       <c r="C576" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D576">
+        <v>64</v>
+      </c>
+      <c r="E576">
+        <v>39</v>
+      </c>
+      <c r="F576">
+        <v>92</v>
+      </c>
+      <c r="G576">
+        <v>37</v>
+      </c>
+      <c r="H576">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>576</v>
       </c>
@@ -15314,8 +15386,23 @@
       <c r="C577" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D577">
+        <v>39</v>
+      </c>
+      <c r="E577">
+        <v>39</v>
+      </c>
+      <c r="F577">
+        <v>70</v>
+      </c>
+      <c r="G577">
+        <v>124</v>
+      </c>
+      <c r="H577">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>577</v>
       </c>
@@ -15325,8 +15412,23 @@
       <c r="C578" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D578">
+        <v>128</v>
+      </c>
+      <c r="E578">
+        <v>14</v>
+      </c>
+      <c r="F578">
+        <v>138</v>
+      </c>
+      <c r="G578">
+        <v>50</v>
+      </c>
+      <c r="H578">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>578</v>
       </c>
@@ -15336,8 +15438,23 @@
       <c r="C579" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D579">
+        <v>79</v>
+      </c>
+      <c r="E579">
+        <v>9</v>
+      </c>
+      <c r="F579">
+        <v>128</v>
+      </c>
+      <c r="G579">
+        <v>12</v>
+      </c>
+      <c r="H579">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>579</v>
       </c>
@@ -15347,8 +15464,23 @@
       <c r="C580" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D580">
+        <v>182</v>
+      </c>
+      <c r="E580">
+        <v>14</v>
+      </c>
+      <c r="F580">
+        <v>83</v>
+      </c>
+      <c r="G580">
+        <v>13</v>
+      </c>
+      <c r="H580">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>580</v>
       </c>
@@ -15358,8 +15490,23 @@
       <c r="C581" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D581">
+        <v>53</v>
+      </c>
+      <c r="E581">
+        <v>43</v>
+      </c>
+      <c r="F581">
+        <v>49</v>
+      </c>
+      <c r="G581">
+        <v>28</v>
+      </c>
+      <c r="H581">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>581</v>
       </c>
@@ -15369,8 +15516,23 @@
       <c r="C582" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D582">
+        <v>162</v>
+      </c>
+      <c r="E582">
+        <v>25</v>
+      </c>
+      <c r="F582">
+        <v>88</v>
+      </c>
+      <c r="G582">
+        <v>21</v>
+      </c>
+      <c r="H582">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>582</v>
       </c>
@@ -15380,8 +15542,23 @@
       <c r="C583" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D583">
+        <v>118</v>
+      </c>
+      <c r="E583">
+        <v>9</v>
+      </c>
+      <c r="F583">
+        <v>32</v>
+      </c>
+      <c r="G583">
+        <v>1</v>
+      </c>
+      <c r="H583">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>583</v>
       </c>
@@ -15391,8 +15568,23 @@
       <c r="C584" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D584">
+        <v>88</v>
+      </c>
+      <c r="E584">
+        <v>28</v>
+      </c>
+      <c r="F584">
+        <v>79</v>
+      </c>
+      <c r="G584">
+        <v>22</v>
+      </c>
+      <c r="H584">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>584</v>
       </c>
@@ -15402,8 +15594,23 @@
       <c r="C585" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D585">
+        <v>141</v>
+      </c>
+      <c r="E585">
+        <v>30</v>
+      </c>
+      <c r="F585">
+        <v>81</v>
+      </c>
+      <c r="G585">
+        <v>43</v>
+      </c>
+      <c r="H585">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>585</v>
       </c>
@@ -15413,8 +15620,23 @@
       <c r="C586" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D586">
+        <v>76</v>
+      </c>
+      <c r="E586">
+        <v>15</v>
+      </c>
+      <c r="F586">
+        <v>69</v>
+      </c>
+      <c r="G586">
+        <v>50</v>
+      </c>
+      <c r="H586">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>586</v>
       </c>
@@ -15424,8 +15646,23 @@
       <c r="C587" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D587">
+        <v>54</v>
+      </c>
+      <c r="E587">
+        <v>31</v>
+      </c>
+      <c r="F587">
+        <v>43</v>
+      </c>
+      <c r="G587">
+        <v>77</v>
+      </c>
+      <c r="H587">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>587</v>
       </c>
@@ -15435,8 +15672,23 @@
       <c r="C588" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D588">
+        <v>13</v>
+      </c>
+      <c r="E588">
+        <v>28</v>
+      </c>
+      <c r="F588">
+        <v>8</v>
+      </c>
+      <c r="G588">
+        <v>61</v>
+      </c>
+      <c r="H588">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>588</v>
       </c>
@@ -15446,8 +15698,23 @@
       <c r="C589" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D589">
+        <v>89</v>
+      </c>
+      <c r="E589">
+        <v>25</v>
+      </c>
+      <c r="F589">
+        <v>39</v>
+      </c>
+      <c r="G589">
+        <v>77</v>
+      </c>
+      <c r="H589">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>589</v>
       </c>
@@ -15457,8 +15724,23 @@
       <c r="C590" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D590">
+        <v>46</v>
+      </c>
+      <c r="E590">
+        <v>146</v>
+      </c>
+      <c r="F590">
+        <v>28</v>
+      </c>
+      <c r="G590">
+        <v>126</v>
+      </c>
+      <c r="H590">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>590</v>
       </c>
@@ -15468,8 +15750,23 @@
       <c r="C591" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D591">
+        <v>105</v>
+      </c>
+      <c r="E591">
+        <v>16</v>
+      </c>
+      <c r="F591">
+        <v>172</v>
+      </c>
+      <c r="G591">
+        <v>13</v>
+      </c>
+      <c r="H591">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>591</v>
       </c>
@@ -15479,8 +15776,23 @@
       <c r="C592" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D592">
+        <v>90</v>
+      </c>
+      <c r="E592">
+        <v>107</v>
+      </c>
+      <c r="F592">
+        <v>87</v>
+      </c>
+      <c r="G592">
+        <v>62</v>
+      </c>
+      <c r="H592">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>592</v>
       </c>
@@ -15490,8 +15802,23 @@
       <c r="C593" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D593">
+        <v>106</v>
+      </c>
+      <c r="E593">
+        <v>35</v>
+      </c>
+      <c r="F593">
+        <v>91</v>
+      </c>
+      <c r="G593">
+        <v>17</v>
+      </c>
+      <c r="H593">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>593</v>
       </c>
@@ -15501,8 +15828,23 @@
       <c r="C594" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D594">
+        <v>50</v>
+      </c>
+      <c r="E594">
+        <v>78</v>
+      </c>
+      <c r="F594">
+        <v>36</v>
+      </c>
+      <c r="G594">
+        <v>87</v>
+      </c>
+      <c r="H594">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>594</v>
       </c>
@@ -15512,8 +15854,23 @@
       <c r="C595" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D595">
+        <v>24</v>
+      </c>
+      <c r="E595">
+        <v>72</v>
+      </c>
+      <c r="F595">
+        <v>15</v>
+      </c>
+      <c r="G595">
+        <v>63</v>
+      </c>
+      <c r="H595">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>595</v>
       </c>
@@ -15523,8 +15880,23 @@
       <c r="C596" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D596">
+        <v>72</v>
+      </c>
+      <c r="E596">
+        <v>166</v>
+      </c>
+      <c r="F596">
+        <v>45</v>
+      </c>
+      <c r="G596">
+        <v>46</v>
+      </c>
+      <c r="H596">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>596</v>
       </c>
@@ -15534,8 +15906,23 @@
       <c r="C597" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D597">
+        <v>78</v>
+      </c>
+      <c r="E597">
+        <v>35</v>
+      </c>
+      <c r="F597">
+        <v>87</v>
+      </c>
+      <c r="G597">
+        <v>47</v>
+      </c>
+      <c r="H597">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>597</v>
       </c>
@@ -15545,8 +15932,23 @@
       <c r="C598" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D598">
+        <v>74</v>
+      </c>
+      <c r="E598">
+        <v>213</v>
+      </c>
+      <c r="F598">
+        <v>11</v>
+      </c>
+      <c r="G598">
+        <v>84</v>
+      </c>
+      <c r="H598">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>598</v>
       </c>
@@ -15556,8 +15958,23 @@
       <c r="C599" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D599">
+        <v>68</v>
+      </c>
+      <c r="E599">
+        <v>124</v>
+      </c>
+      <c r="F599">
+        <v>49</v>
+      </c>
+      <c r="G599">
+        <v>68</v>
+      </c>
+      <c r="H599">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>599</v>
       </c>
@@ -15567,8 +15984,23 @@
       <c r="C600" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D600">
+        <v>80</v>
+      </c>
+      <c r="E600">
+        <v>184</v>
+      </c>
+      <c r="F600">
+        <v>22</v>
+      </c>
+      <c r="G600">
+        <v>20</v>
+      </c>
+      <c r="H600">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>600</v>
       </c>
@@ -15578,8 +16010,23 @@
       <c r="C601" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D601">
+        <v>98</v>
+      </c>
+      <c r="E601">
+        <v>51</v>
+      </c>
+      <c r="F601">
+        <v>64</v>
+      </c>
+      <c r="G601">
+        <v>26</v>
+      </c>
+      <c r="H601">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>601</v>
       </c>
@@ -15589,8 +16036,23 @@
       <c r="C602" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D602">
+        <v>39</v>
+      </c>
+      <c r="E602">
+        <v>117</v>
+      </c>
+      <c r="F602">
+        <v>56</v>
+      </c>
+      <c r="G602">
+        <v>90</v>
+      </c>
+      <c r="H602">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>602</v>
       </c>
@@ -15600,8 +16062,23 @@
       <c r="C603" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D603">
+        <v>70</v>
+      </c>
+      <c r="E603">
+        <v>83</v>
+      </c>
+      <c r="F603">
+        <v>61</v>
+      </c>
+      <c r="G603">
+        <v>4</v>
+      </c>
+      <c r="H603">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>603</v>
       </c>
@@ -15611,8 +16088,23 @@
       <c r="C604" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D604">
+        <v>64</v>
+      </c>
+      <c r="E604">
+        <v>147</v>
+      </c>
+      <c r="F604">
+        <v>53</v>
+      </c>
+      <c r="G604">
+        <v>79</v>
+      </c>
+      <c r="H604">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>604</v>
       </c>
@@ -15622,8 +16114,23 @@
       <c r="C605" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D605">
+        <v>83</v>
+      </c>
+      <c r="E605">
+        <v>119</v>
+      </c>
+      <c r="F605">
+        <v>25</v>
+      </c>
+      <c r="G605">
+        <v>52</v>
+      </c>
+      <c r="H605">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>605</v>
       </c>
@@ -15633,8 +16140,23 @@
       <c r="C606" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D606">
+        <v>95</v>
+      </c>
+      <c r="E606">
+        <v>56</v>
+      </c>
+      <c r="F606">
+        <v>37</v>
+      </c>
+      <c r="G606">
+        <v>18</v>
+      </c>
+      <c r="H606">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>606</v>
       </c>
@@ -15644,8 +16166,23 @@
       <c r="C607" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D607">
+        <v>44</v>
+      </c>
+      <c r="E607">
+        <v>241</v>
+      </c>
+      <c r="F607">
+        <v>25</v>
+      </c>
+      <c r="G607">
+        <v>29</v>
+      </c>
+      <c r="H607">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>607</v>
       </c>
@@ -15655,8 +16192,23 @@
       <c r="C608" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D608">
+        <v>34</v>
+      </c>
+      <c r="E608">
+        <v>123</v>
+      </c>
+      <c r="F608">
+        <v>52</v>
+      </c>
+      <c r="G608">
+        <v>63</v>
+      </c>
+      <c r="H608">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>608</v>
       </c>
@@ -15666,8 +16218,23 @@
       <c r="C609" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D609">
+        <v>112</v>
+      </c>
+      <c r="E609">
+        <v>113</v>
+      </c>
+      <c r="F609">
+        <v>40</v>
+      </c>
+      <c r="G609">
+        <v>79</v>
+      </c>
+      <c r="H609">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>609</v>
       </c>
@@ -15677,8 +16244,23 @@
       <c r="C610" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D610">
+        <v>32</v>
+      </c>
+      <c r="E610">
+        <v>52</v>
+      </c>
+      <c r="F610">
+        <v>31</v>
+      </c>
+      <c r="G610">
+        <v>50</v>
+      </c>
+      <c r="H610">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>610</v>
       </c>
@@ -15688,8 +16270,23 @@
       <c r="C611" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D611">
+        <v>29</v>
+      </c>
+      <c r="E611">
+        <v>87</v>
+      </c>
+      <c r="F611">
+        <v>25</v>
+      </c>
+      <c r="G611">
+        <v>97</v>
+      </c>
+      <c r="H611">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>611</v>
       </c>
@@ -15699,8 +16296,23 @@
       <c r="C612" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D612">
+        <v>34</v>
+      </c>
+      <c r="E612">
+        <v>80</v>
+      </c>
+      <c r="F612">
+        <v>76</v>
+      </c>
+      <c r="G612">
+        <v>47</v>
+      </c>
+      <c r="H612">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>612</v>
       </c>
@@ -15710,8 +16322,23 @@
       <c r="C613" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D613">
+        <v>68</v>
+      </c>
+      <c r="E613">
+        <v>156</v>
+      </c>
+      <c r="F613">
+        <v>104</v>
+      </c>
+      <c r="G613">
+        <v>72</v>
+      </c>
+      <c r="H613">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>613</v>
       </c>
@@ -15721,8 +16348,23 @@
       <c r="C614" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D614">
+        <v>44</v>
+      </c>
+      <c r="E614">
+        <v>114</v>
+      </c>
+      <c r="F614">
+        <v>64</v>
+      </c>
+      <c r="G614">
+        <v>90</v>
+      </c>
+      <c r="H614">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>614</v>
       </c>
@@ -15732,8 +16374,23 @@
       <c r="C615" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D615">
+        <v>70</v>
+      </c>
+      <c r="E615">
+        <v>104</v>
+      </c>
+      <c r="F615">
+        <v>27</v>
+      </c>
+      <c r="G615">
+        <v>41</v>
+      </c>
+      <c r="H615">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>615</v>
       </c>
@@ -15743,8 +16400,23 @@
       <c r="C616" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D616">
+        <v>146</v>
+      </c>
+      <c r="E616">
+        <v>21</v>
+      </c>
+      <c r="F616">
+        <v>84</v>
+      </c>
+      <c r="G616">
+        <v>76</v>
+      </c>
+      <c r="H616">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>616</v>
       </c>
@@ -15754,8 +16426,23 @@
       <c r="C617" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D617">
+        <v>80</v>
+      </c>
+      <c r="E617">
+        <v>56</v>
+      </c>
+      <c r="F617">
+        <v>68</v>
+      </c>
+      <c r="G617">
+        <v>26</v>
+      </c>
+      <c r="H617">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>617</v>
       </c>
@@ -15765,8 +16452,23 @@
       <c r="C618" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D618">
+        <v>140</v>
+      </c>
+      <c r="E618">
+        <v>27</v>
+      </c>
+      <c r="F618">
+        <v>25</v>
+      </c>
+      <c r="G618">
+        <v>64</v>
+      </c>
+      <c r="H618">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>618</v>
       </c>
@@ -15776,8 +16478,23 @@
       <c r="C619" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D619">
+        <v>113</v>
+      </c>
+      <c r="E619">
+        <v>44</v>
+      </c>
+      <c r="F619">
+        <v>114</v>
+      </c>
+      <c r="G619">
+        <v>35</v>
+      </c>
+      <c r="H619">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>619</v>
       </c>
@@ -15787,8 +16504,23 @@
       <c r="C620" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D620">
+        <v>83</v>
+      </c>
+      <c r="E620">
+        <v>28</v>
+      </c>
+      <c r="F620">
+        <v>107</v>
+      </c>
+      <c r="G620">
+        <v>44</v>
+      </c>
+      <c r="H620">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>620</v>
       </c>
@@ -15798,8 +16530,23 @@
       <c r="C621" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D621">
+        <v>78</v>
+      </c>
+      <c r="E621">
+        <v>54</v>
+      </c>
+      <c r="F621">
+        <v>64</v>
+      </c>
+      <c r="G621">
+        <v>61</v>
+      </c>
+      <c r="H621">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>621</v>
       </c>
@@ -15809,8 +16556,23 @@
       <c r="C622" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D622">
+        <v>62</v>
+      </c>
+      <c r="E622">
+        <v>14</v>
+      </c>
+      <c r="F622">
+        <v>73</v>
+      </c>
+      <c r="G622">
+        <v>25</v>
+      </c>
+      <c r="H622">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>622</v>
       </c>
@@ -15820,8 +16582,23 @@
       <c r="C623" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D623">
+        <v>55</v>
+      </c>
+      <c r="E623">
+        <v>74</v>
+      </c>
+      <c r="F623">
+        <v>82</v>
+      </c>
+      <c r="G623">
+        <v>86</v>
+      </c>
+      <c r="H623">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>623</v>
       </c>
@@ -15831,8 +16608,23 @@
       <c r="C624" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D624">
+        <v>51</v>
+      </c>
+      <c r="E624">
+        <v>87</v>
+      </c>
+      <c r="F624">
+        <v>65</v>
+      </c>
+      <c r="G624">
+        <v>132</v>
+      </c>
+      <c r="H624">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>624</v>
       </c>
@@ -15842,8 +16634,23 @@
       <c r="C625" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D625">
+        <v>73</v>
+      </c>
+      <c r="E625">
+        <v>124</v>
+      </c>
+      <c r="F625">
+        <v>26</v>
+      </c>
+      <c r="G625">
+        <v>136</v>
+      </c>
+      <c r="H625">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>625</v>
       </c>
@@ -15853,8 +16660,23 @@
       <c r="C626" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D626">
+        <v>149</v>
+      </c>
+      <c r="E626">
+        <v>30</v>
+      </c>
+      <c r="F626">
+        <v>57</v>
+      </c>
+      <c r="G626">
+        <v>66</v>
+      </c>
+      <c r="H626">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>626</v>
       </c>
@@ -15864,8 +16686,23 @@
       <c r="C627" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D627">
+        <v>42</v>
+      </c>
+      <c r="E627">
+        <v>56</v>
+      </c>
+      <c r="F627">
+        <v>45</v>
+      </c>
+      <c r="G627">
+        <v>97</v>
+      </c>
+      <c r="H627">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>627</v>
       </c>
@@ -15875,8 +16712,23 @@
       <c r="C628" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D628">
+        <v>53</v>
+      </c>
+      <c r="E628">
+        <v>58</v>
+      </c>
+      <c r="F628">
+        <v>73</v>
+      </c>
+      <c r="G628">
+        <v>123</v>
+      </c>
+      <c r="H628">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>628</v>
       </c>
@@ -15886,8 +16738,23 @@
       <c r="C629" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D629">
+        <v>53</v>
+      </c>
+      <c r="E629">
+        <v>96</v>
+      </c>
+      <c r="F629">
+        <v>29</v>
+      </c>
+      <c r="G629">
+        <v>86</v>
+      </c>
+      <c r="H629">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>629</v>
       </c>
@@ -15897,8 +16764,23 @@
       <c r="C630" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D630">
+        <v>93</v>
+      </c>
+      <c r="E630">
+        <v>28</v>
+      </c>
+      <c r="F630">
+        <v>109</v>
+      </c>
+      <c r="G630">
+        <v>79</v>
+      </c>
+      <c r="H630">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>630</v>
       </c>
@@ -15908,8 +16790,23 @@
       <c r="C631" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D631">
+        <v>64</v>
+      </c>
+      <c r="E631">
+        <v>78</v>
+      </c>
+      <c r="F631">
+        <v>27</v>
+      </c>
+      <c r="G631">
+        <v>114</v>
+      </c>
+      <c r="H631">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>631</v>
       </c>
@@ -15919,8 +16816,23 @@
       <c r="C632" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D632">
+        <v>104</v>
+      </c>
+      <c r="E632">
+        <v>99</v>
+      </c>
+      <c r="F632">
+        <v>41</v>
+      </c>
+      <c r="G632">
+        <v>60</v>
+      </c>
+      <c r="H632">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>632</v>
       </c>
@@ -15930,8 +16842,23 @@
       <c r="C633" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D633">
+        <v>65</v>
+      </c>
+      <c r="E633">
+        <v>127</v>
+      </c>
+      <c r="F633">
+        <v>16</v>
+      </c>
+      <c r="G633">
+        <v>58</v>
+      </c>
+      <c r="H633">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>633</v>
       </c>
@@ -15941,8 +16868,23 @@
       <c r="C634" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D634">
+        <v>57</v>
+      </c>
+      <c r="E634">
+        <v>85</v>
+      </c>
+      <c r="F634">
+        <v>47</v>
+      </c>
+      <c r="G634">
+        <v>64</v>
+      </c>
+      <c r="H634">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>634</v>
       </c>
@@ -15952,8 +16894,23 @@
       <c r="C635" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D635">
+        <v>46</v>
+      </c>
+      <c r="E635">
+        <v>110</v>
+      </c>
+      <c r="F635">
+        <v>17</v>
+      </c>
+      <c r="G635">
+        <v>73</v>
+      </c>
+      <c r="H635">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>635</v>
       </c>
@@ -15963,8 +16920,23 @@
       <c r="C636" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D636">
+        <v>64</v>
+      </c>
+      <c r="E636">
+        <v>139</v>
+      </c>
+      <c r="F636">
+        <v>16</v>
+      </c>
+      <c r="G636">
+        <v>57</v>
+      </c>
+      <c r="H636">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>636</v>
       </c>
@@ -15974,8 +16946,23 @@
       <c r="C637" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D637">
+        <v>76</v>
+      </c>
+      <c r="E637">
+        <v>18</v>
+      </c>
+      <c r="F637">
+        <v>44</v>
+      </c>
+      <c r="G637">
+        <v>43</v>
+      </c>
+      <c r="H637">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>637</v>
       </c>
@@ -15985,8 +16972,23 @@
       <c r="C638" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D638">
+        <v>53</v>
+      </c>
+      <c r="E638">
+        <v>89</v>
+      </c>
+      <c r="F638">
+        <v>33</v>
+      </c>
+      <c r="G638">
+        <v>53</v>
+      </c>
+      <c r="H638">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>638</v>
       </c>
@@ -15996,8 +16998,23 @@
       <c r="C639" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D639">
+        <v>130</v>
+      </c>
+      <c r="E639">
+        <v>118</v>
+      </c>
+      <c r="F639">
+        <v>47</v>
+      </c>
+      <c r="G639">
+        <v>73</v>
+      </c>
+      <c r="H639">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>639</v>
       </c>
@@ -16007,8 +17024,23 @@
       <c r="C640" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D640">
+        <v>59</v>
+      </c>
+      <c r="E640">
+        <v>35</v>
+      </c>
+      <c r="F640">
+        <v>28</v>
+      </c>
+      <c r="G640">
+        <v>11</v>
+      </c>
+      <c r="H640">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>640</v>
       </c>
@@ -16018,8 +17050,23 @@
       <c r="C641" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D641">
+        <v>91</v>
+      </c>
+      <c r="E641">
+        <v>101</v>
+      </c>
+      <c r="F641">
+        <v>47</v>
+      </c>
+      <c r="G641">
+        <v>77</v>
+      </c>
+      <c r="H641">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>641</v>
       </c>
@@ -16029,8 +17076,23 @@
       <c r="C642" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D642">
+        <v>59</v>
+      </c>
+      <c r="E642">
+        <v>113</v>
+      </c>
+      <c r="F642">
+        <v>65</v>
+      </c>
+      <c r="G642">
+        <v>104</v>
+      </c>
+      <c r="H642">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>642</v>
       </c>
@@ -16040,8 +17102,23 @@
       <c r="C643" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D643">
+        <v>120</v>
+      </c>
+      <c r="E643">
+        <v>31</v>
+      </c>
+      <c r="F643">
+        <v>120</v>
+      </c>
+      <c r="G643">
+        <v>31</v>
+      </c>
+      <c r="H643">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>643</v>
       </c>
@@ -16051,8 +17128,23 @@
       <c r="C644" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D644">
+        <v>79</v>
+      </c>
+      <c r="E644">
+        <v>142</v>
+      </c>
+      <c r="F644">
+        <v>19</v>
+      </c>
+      <c r="G644">
+        <v>71</v>
+      </c>
+      <c r="H644">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>644</v>
       </c>
@@ -16062,8 +17154,23 @@
       <c r="C645" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D645">
+        <v>35</v>
+      </c>
+      <c r="E645">
+        <v>39</v>
+      </c>
+      <c r="F645">
+        <v>40</v>
+      </c>
+      <c r="G645">
+        <v>29</v>
+      </c>
+      <c r="H645">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>645</v>
       </c>
@@ -16073,8 +17180,23 @@
       <c r="C646" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D646">
+        <v>90</v>
+      </c>
+      <c r="E646">
+        <v>16</v>
+      </c>
+      <c r="F646">
+        <v>26</v>
+      </c>
+      <c r="G646">
+        <v>46</v>
+      </c>
+      <c r="H646">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>646</v>
       </c>
@@ -16084,8 +17206,23 @@
       <c r="C647" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D647">
+        <v>20</v>
+      </c>
+      <c r="E647">
+        <v>171</v>
+      </c>
+      <c r="F647">
+        <v>25</v>
+      </c>
+      <c r="G647">
+        <v>114</v>
+      </c>
+      <c r="H647">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>647</v>
       </c>
@@ -16095,8 +17232,23 @@
       <c r="C648" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D648">
+        <v>36</v>
+      </c>
+      <c r="E648">
+        <v>114</v>
+      </c>
+      <c r="F648">
+        <v>40</v>
+      </c>
+      <c r="G648">
+        <v>46</v>
+      </c>
+      <c r="H648">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>648</v>
       </c>
@@ -16106,8 +17258,23 @@
       <c r="C649" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D649">
+        <v>46</v>
+      </c>
+      <c r="E649">
+        <v>33</v>
+      </c>
+      <c r="F649">
+        <v>30</v>
+      </c>
+      <c r="G649">
+        <v>72</v>
+      </c>
+      <c r="H649">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>649</v>
       </c>
@@ -16117,8 +17284,23 @@
       <c r="C650" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D650">
+        <v>21</v>
+      </c>
+      <c r="E650">
+        <v>122</v>
+      </c>
+      <c r="F650">
+        <v>51</v>
+      </c>
+      <c r="G650">
+        <v>176</v>
+      </c>
+      <c r="H650">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>650</v>
       </c>
@@ -16128,8 +17310,23 @@
       <c r="C651" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D651">
+        <v>122</v>
+      </c>
+      <c r="E651">
+        <v>63</v>
+      </c>
+      <c r="F651">
+        <v>74</v>
+      </c>
+      <c r="G651">
+        <v>137</v>
+      </c>
+      <c r="H651">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>651</v>
       </c>
@@ -16139,8 +17336,23 @@
       <c r="C652" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D652">
+        <v>105</v>
+      </c>
+      <c r="E652">
+        <v>40</v>
+      </c>
+      <c r="F652">
+        <v>73</v>
+      </c>
+      <c r="G652">
+        <v>62</v>
+      </c>
+      <c r="H652">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>652</v>
       </c>
@@ -16150,8 +17362,23 @@
       <c r="C653" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D653">
+        <v>70</v>
+      </c>
+      <c r="E653">
+        <v>31</v>
+      </c>
+      <c r="F653">
+        <v>57</v>
+      </c>
+      <c r="G653">
+        <v>82</v>
+      </c>
+      <c r="H653">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>653</v>
       </c>
@@ -16161,8 +17388,23 @@
       <c r="C654" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D654">
+        <v>71</v>
+      </c>
+      <c r="E654">
+        <v>45</v>
+      </c>
+      <c r="F654">
+        <v>54</v>
+      </c>
+      <c r="G654">
+        <v>125</v>
+      </c>
+      <c r="H654">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>654</v>
       </c>
@@ -16172,8 +17414,23 @@
       <c r="C655" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D655">
+        <v>34</v>
+      </c>
+      <c r="E655">
+        <v>113</v>
+      </c>
+      <c r="F655">
+        <v>105</v>
+      </c>
+      <c r="G655">
+        <v>77</v>
+      </c>
+      <c r="H655">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>655</v>
       </c>
@@ -16183,8 +17440,23 @@
       <c r="C656" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D656">
+        <v>42</v>
+      </c>
+      <c r="E656">
+        <v>88</v>
+      </c>
+      <c r="F656">
+        <v>30</v>
+      </c>
+      <c r="G656">
+        <v>103</v>
+      </c>
+      <c r="H656">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>656</v>
       </c>
@@ -16194,8 +17466,23 @@
       <c r="C657" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D657">
+        <v>57</v>
+      </c>
+      <c r="E657">
+        <v>110</v>
+      </c>
+      <c r="F657">
+        <v>18</v>
+      </c>
+      <c r="G657">
+        <v>111</v>
+      </c>
+      <c r="H657">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <v>657</v>
       </c>
@@ -16205,8 +17492,23 @@
       <c r="C658" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D658">
+        <v>25</v>
+      </c>
+      <c r="E658">
+        <v>17</v>
+      </c>
+      <c r="F658">
+        <v>25</v>
+      </c>
+      <c r="G658">
+        <v>33</v>
+      </c>
+      <c r="H658">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <v>658</v>
       </c>
@@ -16216,8 +17518,23 @@
       <c r="C659" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D659">
+        <v>54</v>
+      </c>
+      <c r="E659">
+        <v>38</v>
+      </c>
+      <c r="F659">
+        <v>14</v>
+      </c>
+      <c r="G659">
+        <v>22</v>
+      </c>
+      <c r="H659">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <v>659</v>
       </c>
@@ -16227,8 +17544,23 @@
       <c r="C660" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D660">
+        <v>4</v>
+      </c>
+      <c r="E660">
+        <v>41</v>
+      </c>
+      <c r="F660">
+        <v>34</v>
+      </c>
+      <c r="G660">
+        <v>46</v>
+      </c>
+      <c r="H660">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <v>660</v>
       </c>
@@ -16238,8 +17570,23 @@
       <c r="C661" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D661">
+        <v>23</v>
+      </c>
+      <c r="E661">
+        <v>92</v>
+      </c>
+      <c r="F661">
+        <v>17</v>
+      </c>
+      <c r="G661">
+        <v>46</v>
+      </c>
+      <c r="H661">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <v>661</v>
       </c>
@@ -16249,8 +17596,23 @@
       <c r="C662" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D662">
+        <v>46</v>
+      </c>
+      <c r="E662">
+        <v>56</v>
+      </c>
+      <c r="F662">
+        <v>10</v>
+      </c>
+      <c r="G662">
+        <v>44</v>
+      </c>
+      <c r="H662">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <v>662</v>
       </c>
@@ -16260,8 +17622,23 @@
       <c r="C663" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D663">
+        <v>21</v>
+      </c>
+      <c r="E663">
+        <v>67</v>
+      </c>
+      <c r="F663">
+        <v>37</v>
+      </c>
+      <c r="G663">
+        <v>98</v>
+      </c>
+      <c r="H663">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <v>663</v>
       </c>
@@ -16271,8 +17648,23 @@
       <c r="C664" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D664">
+        <v>30</v>
+      </c>
+      <c r="E664">
+        <v>64</v>
+      </c>
+      <c r="F664">
+        <v>21</v>
+      </c>
+      <c r="G664">
+        <v>135</v>
+      </c>
+      <c r="H664">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <v>664</v>
       </c>
@@ -16282,8 +17674,23 @@
       <c r="C665" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D665">
+        <v>30</v>
+      </c>
+      <c r="E665">
+        <v>77</v>
+      </c>
+      <c r="F665">
+        <v>51</v>
+      </c>
+      <c r="G665">
+        <v>20</v>
+      </c>
+      <c r="H665">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <v>665</v>
       </c>
@@ -16293,8 +17700,23 @@
       <c r="C666" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D666">
+        <v>87</v>
+      </c>
+      <c r="E666">
+        <v>43</v>
+      </c>
+      <c r="F666">
+        <v>24</v>
+      </c>
+      <c r="G666">
+        <v>93</v>
+      </c>
+      <c r="H666">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <v>666</v>
       </c>
@@ -16304,8 +17726,23 @@
       <c r="C667" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D667">
+        <v>73</v>
+      </c>
+      <c r="E667">
+        <v>69</v>
+      </c>
+      <c r="F667">
+        <v>24</v>
+      </c>
+      <c r="G667">
+        <v>106</v>
+      </c>
+      <c r="H667">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <v>667</v>
       </c>
@@ -16315,8 +17752,23 @@
       <c r="C668" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D668">
+        <v>39</v>
+      </c>
+      <c r="E668">
+        <v>98</v>
+      </c>
+      <c r="F668">
+        <v>13</v>
+      </c>
+      <c r="G668">
+        <v>90</v>
+      </c>
+      <c r="H668">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <v>668</v>
       </c>
@@ -16326,8 +17778,23 @@
       <c r="C669" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D669">
+        <v>24</v>
+      </c>
+      <c r="E669">
+        <v>100</v>
+      </c>
+      <c r="F669">
+        <v>26</v>
+      </c>
+      <c r="G669">
+        <v>118</v>
+      </c>
+      <c r="H669">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <v>669</v>
       </c>
@@ -16337,8 +17804,23 @@
       <c r="C670" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D670">
+        <v>26</v>
+      </c>
+      <c r="E670">
+        <v>163</v>
+      </c>
+      <c r="F670">
+        <v>24</v>
+      </c>
+      <c r="G670">
+        <v>141</v>
+      </c>
+      <c r="H670">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A671" s="1">
         <v>670</v>
       </c>
@@ -16348,8 +17830,23 @@
       <c r="C671" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D671">
+        <v>51</v>
+      </c>
+      <c r="E671">
+        <v>186</v>
+      </c>
+      <c r="F671">
+        <v>20</v>
+      </c>
+      <c r="G671">
+        <v>168</v>
+      </c>
+      <c r="H671">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A672" s="1">
         <v>671</v>
       </c>
@@ -16359,8 +17856,23 @@
       <c r="C672" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D672">
+        <v>61</v>
+      </c>
+      <c r="E672">
+        <v>159</v>
+      </c>
+      <c r="F672">
+        <v>63</v>
+      </c>
+      <c r="G672">
+        <v>232</v>
+      </c>
+      <c r="H672">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <v>672</v>
       </c>
@@ -16370,8 +17882,23 @@
       <c r="C673" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D673">
+        <v>172</v>
+      </c>
+      <c r="E673">
+        <v>59</v>
+      </c>
+      <c r="F673">
+        <v>15</v>
+      </c>
+      <c r="G673">
+        <v>108</v>
+      </c>
+      <c r="H673">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <v>673</v>
       </c>
@@ -16381,8 +17908,23 @@
       <c r="C674" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D674">
+        <v>66</v>
+      </c>
+      <c r="E674">
+        <v>67</v>
+      </c>
+      <c r="F674">
+        <v>31</v>
+      </c>
+      <c r="G674">
+        <v>109</v>
+      </c>
+      <c r="H674">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <v>674</v>
       </c>
@@ -16392,8 +17934,23 @@
       <c r="C675" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D675">
+        <v>36</v>
+      </c>
+      <c r="E675">
+        <v>91</v>
+      </c>
+      <c r="F675">
+        <v>28</v>
+      </c>
+      <c r="G675">
+        <v>64</v>
+      </c>
+      <c r="H675">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <v>675</v>
       </c>
@@ -16403,8 +17960,23 @@
       <c r="C676" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D676">
+        <v>11</v>
+      </c>
+      <c r="E676">
+        <v>45</v>
+      </c>
+      <c r="F676">
+        <v>44</v>
+      </c>
+      <c r="G676">
+        <v>15</v>
+      </c>
+      <c r="H676">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <v>676</v>
       </c>
@@ -16414,8 +17986,23 @@
       <c r="C677" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D677">
+        <v>23</v>
+      </c>
+      <c r="E677">
+        <v>37</v>
+      </c>
+      <c r="F677">
+        <v>111</v>
+      </c>
+      <c r="G677">
+        <v>25</v>
+      </c>
+      <c r="H677">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <v>677</v>
       </c>
@@ -16425,8 +18012,23 @@
       <c r="C678" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D678">
+        <v>40</v>
+      </c>
+      <c r="E678">
+        <v>32</v>
+      </c>
+      <c r="F678">
+        <v>18</v>
+      </c>
+      <c r="G678">
+        <v>124</v>
+      </c>
+      <c r="H678">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <v>678</v>
       </c>
@@ -16436,8 +18038,23 @@
       <c r="C679" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D679">
+        <v>12</v>
+      </c>
+      <c r="E679">
+        <v>105</v>
+      </c>
+      <c r="F679">
+        <v>35</v>
+      </c>
+      <c r="G679">
+        <v>72</v>
+      </c>
+      <c r="H679">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <v>679</v>
       </c>
@@ -16447,8 +18064,23 @@
       <c r="C680" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D680">
+        <v>2</v>
+      </c>
+      <c r="E680">
+        <v>27</v>
+      </c>
+      <c r="F680">
+        <v>60</v>
+      </c>
+      <c r="G680">
+        <v>65</v>
+      </c>
+      <c r="H680">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <v>680</v>
       </c>
@@ -16458,8 +18090,23 @@
       <c r="C681" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D681">
+        <v>51</v>
+      </c>
+      <c r="E681">
+        <v>11</v>
+      </c>
+      <c r="F681">
+        <v>35</v>
+      </c>
+      <c r="G681">
+        <v>58</v>
+      </c>
+      <c r="H681">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <v>681</v>
       </c>
@@ -16469,8 +18116,23 @@
       <c r="C682" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D682">
+        <v>121</v>
+      </c>
+      <c r="E682">
+        <v>38</v>
+      </c>
+      <c r="F682">
+        <v>147</v>
+      </c>
+      <c r="G682">
+        <v>165</v>
+      </c>
+      <c r="H682">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <v>682</v>
       </c>
@@ -16480,8 +18142,23 @@
       <c r="C683" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D683">
+        <v>54</v>
+      </c>
+      <c r="E683">
+        <v>22</v>
+      </c>
+      <c r="F683">
+        <v>97</v>
+      </c>
+      <c r="G683">
+        <v>10</v>
+      </c>
+      <c r="H683">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A684" s="1">
         <v>683</v>
       </c>
@@ -16491,8 +18168,23 @@
       <c r="C684" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D684">
+        <v>94</v>
+      </c>
+      <c r="E684">
+        <v>38</v>
+      </c>
+      <c r="F684">
+        <v>98</v>
+      </c>
+      <c r="G684">
+        <v>140</v>
+      </c>
+      <c r="H684">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A685" s="1">
         <v>684</v>
       </c>
@@ -16502,8 +18194,23 @@
       <c r="C685" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D685">
+        <v>39</v>
+      </c>
+      <c r="E685">
+        <v>102</v>
+      </c>
+      <c r="F685">
+        <v>52</v>
+      </c>
+      <c r="G685">
+        <v>92</v>
+      </c>
+      <c r="H685">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A686" s="1">
         <v>685</v>
       </c>
@@ -16513,8 +18220,23 @@
       <c r="C686" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D686">
+        <v>54</v>
+      </c>
+      <c r="E686">
+        <v>86</v>
+      </c>
+      <c r="F686">
+        <v>32</v>
+      </c>
+      <c r="G686">
+        <v>104</v>
+      </c>
+      <c r="H686">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A687" s="1">
         <v>686</v>
       </c>
@@ -16524,8 +18246,23 @@
       <c r="C687" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D687">
+        <v>42</v>
+      </c>
+      <c r="E687">
+        <v>28</v>
+      </c>
+      <c r="F687">
+        <v>48</v>
+      </c>
+      <c r="G687">
+        <v>75</v>
+      </c>
+      <c r="H687">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A688" s="1">
         <v>687</v>
       </c>
@@ -16535,8 +18272,23 @@
       <c r="C688" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D688">
+        <v>19</v>
+      </c>
+      <c r="E688">
+        <v>41</v>
+      </c>
+      <c r="F688">
+        <v>36</v>
+      </c>
+      <c r="G688">
+        <v>56</v>
+      </c>
+      <c r="H688">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <v>688</v>
       </c>
@@ -16546,8 +18298,23 @@
       <c r="C689" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D689">
+        <v>46</v>
+      </c>
+      <c r="E689">
+        <v>71</v>
+      </c>
+      <c r="F689">
+        <v>40</v>
+      </c>
+      <c r="G689">
+        <v>124</v>
+      </c>
+      <c r="H689">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A690" s="1">
         <v>689</v>
       </c>
@@ -16557,8 +18324,23 @@
       <c r="C690" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D690">
+        <v>73</v>
+      </c>
+      <c r="E690">
+        <v>24</v>
+      </c>
+      <c r="F690">
+        <v>34</v>
+      </c>
+      <c r="G690">
+        <v>90</v>
+      </c>
+      <c r="H690">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A691" s="1">
         <v>690</v>
       </c>
@@ -16568,8 +18350,23 @@
       <c r="C691" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D691">
+        <v>45</v>
+      </c>
+      <c r="E691">
+        <v>18</v>
+      </c>
+      <c r="F691">
+        <v>66</v>
+      </c>
+      <c r="G691">
+        <v>73</v>
+      </c>
+      <c r="H691">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A692" s="1">
         <v>691</v>
       </c>
@@ -16579,8 +18376,23 @@
       <c r="C692" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D692">
+        <v>50</v>
+      </c>
+      <c r="E692">
+        <v>52</v>
+      </c>
+      <c r="F692">
+        <v>47</v>
+      </c>
+      <c r="G692">
+        <v>133</v>
+      </c>
+      <c r="H692">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A693" s="1">
         <v>692</v>
       </c>
@@ -16590,8 +18402,23 @@
       <c r="C693" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D693">
+        <v>23</v>
+      </c>
+      <c r="E693">
+        <v>68</v>
+      </c>
+      <c r="F693">
+        <v>20</v>
+      </c>
+      <c r="G693">
+        <v>100</v>
+      </c>
+      <c r="H693">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A694" s="1">
         <v>693</v>
       </c>
@@ -16601,8 +18428,23 @@
       <c r="C694" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D694">
+        <v>20</v>
+      </c>
+      <c r="E694">
+        <v>43</v>
+      </c>
+      <c r="F694">
+        <v>17</v>
+      </c>
+      <c r="G694">
+        <v>73</v>
+      </c>
+      <c r="H694">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A695" s="1">
         <v>694</v>
       </c>
@@ -16612,8 +18454,23 @@
       <c r="C695" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D695">
+        <v>31</v>
+      </c>
+      <c r="E695">
+        <v>68</v>
+      </c>
+      <c r="F695">
+        <v>25</v>
+      </c>
+      <c r="G695">
+        <v>119</v>
+      </c>
+      <c r="H695">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A696" s="1">
         <v>695</v>
       </c>
@@ -16623,8 +18480,23 @@
       <c r="C696" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D696">
+        <v>34</v>
+      </c>
+      <c r="E696">
+        <v>17</v>
+      </c>
+      <c r="F696">
+        <v>40</v>
+      </c>
+      <c r="G696">
+        <v>46</v>
+      </c>
+      <c r="H696">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A697" s="1">
         <v>696</v>
       </c>
@@ -16634,8 +18506,23 @@
       <c r="C697" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D697">
+        <v>35</v>
+      </c>
+      <c r="E697">
+        <v>2</v>
+      </c>
+      <c r="F697">
+        <v>19</v>
+      </c>
+      <c r="G697">
+        <v>18</v>
+      </c>
+      <c r="H697">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A698" s="1">
         <v>697</v>
       </c>
@@ -16645,8 +18532,23 @@
       <c r="C698" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D698">
+        <v>4</v>
+      </c>
+      <c r="E698">
+        <v>16</v>
+      </c>
+      <c r="F698">
+        <v>20</v>
+      </c>
+      <c r="G698">
+        <v>17</v>
+      </c>
+      <c r="H698">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A699" s="1">
         <v>698</v>
       </c>
@@ -16656,8 +18558,23 @@
       <c r="C699" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D699">
+        <v>4</v>
+      </c>
+      <c r="E699">
+        <v>9</v>
+      </c>
+      <c r="F699">
+        <v>21</v>
+      </c>
+      <c r="G699">
+        <v>42</v>
+      </c>
+      <c r="H699">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A700" s="1">
         <v>699</v>
       </c>
@@ -16667,8 +18584,23 @@
       <c r="C700" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D700">
+        <v>51</v>
+      </c>
+      <c r="E700">
+        <v>27</v>
+      </c>
+      <c r="F700">
+        <v>42</v>
+      </c>
+      <c r="G700">
+        <v>66</v>
+      </c>
+      <c r="H700">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A701" s="1">
         <v>700</v>
       </c>
@@ -16678,8 +18610,23 @@
       <c r="C701" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D701">
+        <v>42</v>
+      </c>
+      <c r="E701">
+        <v>30</v>
+      </c>
+      <c r="F701">
+        <v>88</v>
+      </c>
+      <c r="G701">
+        <v>83</v>
+      </c>
+      <c r="H701">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A702" s="1">
         <v>701</v>
       </c>
@@ -16689,8 +18636,23 @@
       <c r="C702" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D702">
+        <v>32</v>
+      </c>
+      <c r="E702">
+        <v>64</v>
+      </c>
+      <c r="F702">
+        <v>46</v>
+      </c>
+      <c r="G702">
+        <v>95</v>
+      </c>
+      <c r="H702">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A703" s="1">
         <v>702</v>
       </c>
@@ -16700,8 +18662,23 @@
       <c r="C703" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D703">
+        <v>53</v>
+      </c>
+      <c r="E703">
+        <v>89</v>
+      </c>
+      <c r="F703">
+        <v>34</v>
+      </c>
+      <c r="G703">
+        <v>75</v>
+      </c>
+      <c r="H703">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A704" s="1">
         <v>703</v>
       </c>
@@ -16711,8 +18688,23 @@
       <c r="C704" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D704">
+        <v>35</v>
+      </c>
+      <c r="E704">
+        <v>8</v>
+      </c>
+      <c r="F704">
+        <v>37</v>
+      </c>
+      <c r="G704">
+        <v>12</v>
+      </c>
+      <c r="H704">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A705" s="1">
         <v>704</v>
       </c>
@@ -16722,8 +18714,23 @@
       <c r="C705" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D705">
+        <v>26</v>
+      </c>
+      <c r="E705">
+        <v>77</v>
+      </c>
+      <c r="F705">
+        <v>18</v>
+      </c>
+      <c r="G705">
+        <v>58</v>
+      </c>
+      <c r="H705">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A706" s="1">
         <v>705</v>
       </c>
@@ -16733,8 +18740,23 @@
       <c r="C706" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D706">
+        <v>49</v>
+      </c>
+      <c r="E706">
+        <v>82</v>
+      </c>
+      <c r="F706">
+        <v>11</v>
+      </c>
+      <c r="G706">
+        <v>76</v>
+      </c>
+      <c r="H706">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A707" s="1">
         <v>706</v>
       </c>
@@ -16744,8 +18766,23 @@
       <c r="C707" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D707">
+        <v>39</v>
+      </c>
+      <c r="E707">
+        <v>85</v>
+      </c>
+      <c r="F707">
+        <v>26</v>
+      </c>
+      <c r="G707">
+        <v>93</v>
+      </c>
+      <c r="H707">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A708" s="1">
         <v>707</v>
       </c>
@@ -16755,8 +18792,23 @@
       <c r="C708" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D708">
+        <v>117</v>
+      </c>
+      <c r="E708">
+        <v>45</v>
+      </c>
+      <c r="F708">
+        <v>79</v>
+      </c>
+      <c r="G708">
+        <v>26</v>
+      </c>
+      <c r="H708">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A709" s="1">
         <v>708</v>
       </c>
@@ -16766,8 +18818,23 @@
       <c r="C709" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D709">
+        <v>46</v>
+      </c>
+      <c r="E709">
+        <v>98</v>
+      </c>
+      <c r="F709">
+        <v>68</v>
+      </c>
+      <c r="G709">
+        <v>46</v>
+      </c>
+      <c r="H709">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A710" s="1">
         <v>709</v>
       </c>
@@ -16777,8 +18844,23 @@
       <c r="C710" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D710">
+        <v>7</v>
+      </c>
+      <c r="E710">
+        <v>10</v>
+      </c>
+      <c r="F710">
+        <v>75</v>
+      </c>
+      <c r="G710">
+        <v>31</v>
+      </c>
+      <c r="H710">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A711" s="1">
         <v>710</v>
       </c>
@@ -16788,8 +18870,23 @@
       <c r="C711" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D711">
+        <v>88</v>
+      </c>
+      <c r="E711">
+        <v>120</v>
+      </c>
+      <c r="F711">
+        <v>66</v>
+      </c>
+      <c r="G711">
+        <v>99</v>
+      </c>
+      <c r="H711">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A712" s="1">
         <v>711</v>
       </c>
@@ -16799,8 +18896,23 @@
       <c r="C712" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D712">
+        <v>34</v>
+      </c>
+      <c r="E712">
+        <v>155</v>
+      </c>
+      <c r="F712">
+        <v>35</v>
+      </c>
+      <c r="G712">
+        <v>12</v>
+      </c>
+      <c r="H712">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A713" s="1">
         <v>712</v>
       </c>
@@ -16810,8 +18922,23 @@
       <c r="C713" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D713">
+        <v>34</v>
+      </c>
+      <c r="E713">
+        <v>148</v>
+      </c>
+      <c r="F713">
+        <v>45</v>
+      </c>
+      <c r="G713">
+        <v>69</v>
+      </c>
+      <c r="H713">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A714" s="1">
         <v>713</v>
       </c>
@@ -16821,8 +18948,23 @@
       <c r="C714" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D714">
+        <v>40</v>
+      </c>
+      <c r="E714">
+        <v>157</v>
+      </c>
+      <c r="F714">
+        <v>36</v>
+      </c>
+      <c r="G714">
+        <v>119</v>
+      </c>
+      <c r="H714">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A715" s="1">
         <v>714</v>
       </c>
@@ -16832,8 +18974,23 @@
       <c r="C715" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D715">
+        <v>22</v>
+      </c>
+      <c r="E715">
+        <v>17</v>
+      </c>
+      <c r="F715">
+        <v>46</v>
+      </c>
+      <c r="G715">
+        <v>11</v>
+      </c>
+      <c r="H715">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A716" s="1">
         <v>715</v>
       </c>
@@ -16843,8 +19000,23 @@
       <c r="C716" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D716">
+        <v>24</v>
+      </c>
+      <c r="E716">
+        <v>110</v>
+      </c>
+      <c r="F716">
+        <v>25</v>
+      </c>
+      <c r="G716">
+        <v>70</v>
+      </c>
+      <c r="H716">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A717" s="1">
         <v>716</v>
       </c>
@@ -16854,8 +19026,23 @@
       <c r="C717" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D717">
+        <v>15</v>
+      </c>
+      <c r="E717">
+        <v>36</v>
+      </c>
+      <c r="F717">
+        <v>29</v>
+      </c>
+      <c r="G717">
+        <v>18</v>
+      </c>
+      <c r="H717">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A718" s="1">
         <v>717</v>
       </c>
@@ -16865,8 +19052,23 @@
       <c r="C718" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D718">
+        <v>42</v>
+      </c>
+      <c r="E718">
+        <v>18</v>
+      </c>
+      <c r="F718">
+        <v>17</v>
+      </c>
+      <c r="G718">
+        <v>10</v>
+      </c>
+      <c r="H718">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A719" s="1">
         <v>718</v>
       </c>
@@ -16876,8 +19078,23 @@
       <c r="C719" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D719">
+        <v>11</v>
+      </c>
+      <c r="E719">
+        <v>9</v>
+      </c>
+      <c r="F719">
+        <v>14</v>
+      </c>
+      <c r="G719">
+        <v>10</v>
+      </c>
+      <c r="H719">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A720" s="1">
         <v>719</v>
       </c>
@@ -16887,8 +19104,23 @@
       <c r="C720" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D720">
+        <v>14</v>
+      </c>
+      <c r="E720">
+        <v>16</v>
+      </c>
+      <c r="F720">
+        <v>10</v>
+      </c>
+      <c r="G720">
+        <v>12</v>
+      </c>
+      <c r="H720">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A721" s="1">
         <v>720</v>
       </c>
@@ -16898,8 +19130,23 @@
       <c r="C721" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D721">
+        <v>26</v>
+      </c>
+      <c r="E721">
+        <v>20</v>
+      </c>
+      <c r="F721">
+        <v>22</v>
+      </c>
+      <c r="G721">
+        <v>20</v>
+      </c>
+      <c r="H721">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A722" s="1">
         <v>721</v>
       </c>
@@ -16909,8 +19156,23 @@
       <c r="C722" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D722">
+        <v>12</v>
+      </c>
+      <c r="E722">
+        <v>12</v>
+      </c>
+      <c r="F722">
+        <v>6</v>
+      </c>
+      <c r="G722">
+        <v>20</v>
+      </c>
+      <c r="H722">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A723" s="1">
         <v>722</v>
       </c>
@@ -16920,8 +19182,23 @@
       <c r="C723" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D723">
+        <v>19</v>
+      </c>
+      <c r="E723">
+        <v>39</v>
+      </c>
+      <c r="F723">
+        <v>18</v>
+      </c>
+      <c r="G723">
+        <v>25</v>
+      </c>
+      <c r="H723">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A724" s="1">
         <v>723</v>
       </c>
@@ -16931,8 +19208,23 @@
       <c r="C724" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D724">
+        <v>15</v>
+      </c>
+      <c r="E724">
+        <v>24</v>
+      </c>
+      <c r="F724">
+        <v>17</v>
+      </c>
+      <c r="G724">
+        <v>23</v>
+      </c>
+      <c r="H724">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A725" s="1">
         <v>724</v>
       </c>
@@ -16942,8 +19234,23 @@
       <c r="C725" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D725">
+        <v>10</v>
+      </c>
+      <c r="E725">
+        <v>18</v>
+      </c>
+      <c r="F725">
+        <v>22</v>
+      </c>
+      <c r="G725">
+        <v>23</v>
+      </c>
+      <c r="H725">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A726" s="1">
         <v>725</v>
       </c>
@@ -16953,8 +19260,23 @@
       <c r="C726" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D726">
+        <v>35</v>
+      </c>
+      <c r="E726">
+        <v>56</v>
+      </c>
+      <c r="F726">
+        <v>31</v>
+      </c>
+      <c r="G726">
+        <v>31</v>
+      </c>
+      <c r="H726">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A727" s="1">
         <v>726</v>
       </c>
@@ -16964,8 +19286,23 @@
       <c r="C727" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D727">
+        <v>42</v>
+      </c>
+      <c r="E727">
+        <v>55</v>
+      </c>
+      <c r="F727">
+        <v>22</v>
+      </c>
+      <c r="G727">
+        <v>32</v>
+      </c>
+      <c r="H727">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A728" s="1">
         <v>727</v>
       </c>
@@ -16975,8 +19312,23 @@
       <c r="C728" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D728">
+        <v>30</v>
+      </c>
+      <c r="E728">
+        <v>77</v>
+      </c>
+      <c r="F728">
+        <v>26</v>
+      </c>
+      <c r="G728">
+        <v>39</v>
+      </c>
+      <c r="H728">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A729" s="1">
         <v>728</v>
       </c>
@@ -16987,7 +19339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A730" s="1">
         <v>729</v>
       </c>
@@ -16997,8 +19349,23 @@
       <c r="C730" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D730">
+        <v>31</v>
+      </c>
+      <c r="E730">
+        <v>81</v>
+      </c>
+      <c r="F730">
+        <v>53</v>
+      </c>
+      <c r="G730">
+        <v>32</v>
+      </c>
+      <c r="H730">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A731" s="1">
         <v>730</v>
       </c>
@@ -17009,7 +19376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A732" s="1">
         <v>731</v>
       </c>
@@ -17019,8 +19386,23 @@
       <c r="C732" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D732">
+        <v>2</v>
+      </c>
+      <c r="E732">
+        <v>17</v>
+      </c>
+      <c r="F732">
+        <v>8</v>
+      </c>
+      <c r="G732">
+        <v>12</v>
+      </c>
+      <c r="H732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A733" s="1">
         <v>732</v>
       </c>
@@ -17030,8 +19412,23 @@
       <c r="C733" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D733">
+        <v>53</v>
+      </c>
+      <c r="E733">
+        <v>47</v>
+      </c>
+      <c r="F733">
+        <v>68</v>
+      </c>
+      <c r="G733">
+        <v>61</v>
+      </c>
+      <c r="H733">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A734" s="1">
         <v>733</v>
       </c>
@@ -17041,8 +19438,23 @@
       <c r="C734" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D734">
+        <v>42</v>
+      </c>
+      <c r="E734">
+        <v>30</v>
+      </c>
+      <c r="F734">
+        <v>29</v>
+      </c>
+      <c r="G734">
+        <v>42</v>
+      </c>
+      <c r="H734">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A735" s="1">
         <v>734</v>
       </c>
@@ -17052,8 +19464,23 @@
       <c r="C735" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D735">
+        <v>33</v>
+      </c>
+      <c r="E735">
+        <v>53</v>
+      </c>
+      <c r="F735">
+        <v>44</v>
+      </c>
+      <c r="G735">
+        <v>70</v>
+      </c>
+      <c r="H735">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A736" s="1">
         <v>735</v>
       </c>
@@ -17063,8 +19490,23 @@
       <c r="C736" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D736">
+        <v>35</v>
+      </c>
+      <c r="E736">
+        <v>34</v>
+      </c>
+      <c r="F736">
+        <v>39</v>
+      </c>
+      <c r="G736">
+        <v>21</v>
+      </c>
+      <c r="H736">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="737" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A737" s="1">
         <v>736</v>
       </c>
@@ -17074,8 +19516,23 @@
       <c r="C737" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D737">
+        <v>36</v>
+      </c>
+      <c r="E737">
+        <v>91</v>
+      </c>
+      <c r="F737">
+        <v>35</v>
+      </c>
+      <c r="G737">
+        <v>75</v>
+      </c>
+      <c r="H737">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A738" s="1">
         <v>737</v>
       </c>
@@ -17086,7 +19543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A739" s="1">
         <v>738</v>
       </c>
@@ -17096,8 +19553,23 @@
       <c r="C739" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D739">
+        <v>37</v>
+      </c>
+      <c r="E739">
+        <v>51</v>
+      </c>
+      <c r="F739">
+        <v>36</v>
+      </c>
+      <c r="G739">
+        <v>55</v>
+      </c>
+      <c r="H739">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A740" s="1">
         <v>739</v>
       </c>
@@ -17107,8 +19579,23 @@
       <c r="C740" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D740">
+        <v>36</v>
+      </c>
+      <c r="E740">
+        <v>36</v>
+      </c>
+      <c r="F740">
+        <v>40</v>
+      </c>
+      <c r="G740">
+        <v>43</v>
+      </c>
+      <c r="H740">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A741" s="1">
         <v>740</v>
       </c>
@@ -17118,8 +19605,23 @@
       <c r="C741" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D741">
+        <v>58</v>
+      </c>
+      <c r="E741">
+        <v>50</v>
+      </c>
+      <c r="F741">
+        <v>38</v>
+      </c>
+      <c r="G741">
+        <v>76</v>
+      </c>
+      <c r="H741">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A742" s="1">
         <v>741</v>
       </c>
@@ -17129,8 +19631,23 @@
       <c r="C742" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D742">
+        <v>51</v>
+      </c>
+      <c r="E742">
+        <v>38</v>
+      </c>
+      <c r="F742">
+        <v>41</v>
+      </c>
+      <c r="G742">
+        <v>64</v>
+      </c>
+      <c r="H742">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A743" s="1">
         <v>742</v>
       </c>
@@ -17141,7 +19658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A744" s="1">
         <v>743</v>
       </c>
@@ -17151,8 +19668,23 @@
       <c r="C744" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D744">
+        <v>31</v>
+      </c>
+      <c r="E744">
+        <v>80</v>
+      </c>
+      <c r="F744">
+        <v>32</v>
+      </c>
+      <c r="G744">
+        <v>40</v>
+      </c>
+      <c r="H744">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A745" s="1">
         <v>744</v>
       </c>
@@ -17163,7 +19695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A746" s="1">
         <v>745</v>
       </c>
@@ -17173,8 +19705,23 @@
       <c r="C746" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D746">
+        <v>29</v>
+      </c>
+      <c r="E746">
+        <v>38</v>
+      </c>
+      <c r="F746">
+        <v>30</v>
+      </c>
+      <c r="G746">
+        <v>37</v>
+      </c>
+      <c r="H746">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A747" s="1">
         <v>746</v>
       </c>
@@ -17184,8 +19731,23 @@
       <c r="C747" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D747">
+        <v>24</v>
+      </c>
+      <c r="E747">
+        <v>27</v>
+      </c>
+      <c r="F747">
+        <v>8</v>
+      </c>
+      <c r="G747">
+        <v>50</v>
+      </c>
+      <c r="H747">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A748" s="1">
         <v>747</v>
       </c>
@@ -17195,8 +19757,23 @@
       <c r="C748" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D748">
+        <v>30</v>
+      </c>
+      <c r="E748">
+        <v>100</v>
+      </c>
+      <c r="F748">
+        <v>30</v>
+      </c>
+      <c r="G748">
+        <v>68</v>
+      </c>
+      <c r="H748">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A749" s="1">
         <v>748</v>
       </c>
@@ -17206,8 +19783,23 @@
       <c r="C749" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D749">
+        <v>19</v>
+      </c>
+      <c r="E749">
+        <v>59</v>
+      </c>
+      <c r="F749">
+        <v>23</v>
+      </c>
+      <c r="G749">
+        <v>50</v>
+      </c>
+      <c r="H749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A750" s="1">
         <v>749</v>
       </c>
@@ -17217,8 +19809,23 @@
       <c r="C750" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D750">
+        <v>24</v>
+      </c>
+      <c r="E750">
+        <v>21</v>
+      </c>
+      <c r="F750">
+        <v>28</v>
+      </c>
+      <c r="G750">
+        <v>11</v>
+      </c>
+      <c r="H750">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A751" s="1">
         <v>750</v>
       </c>
@@ -17228,8 +19835,23 @@
       <c r="C751" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D751">
+        <v>26</v>
+      </c>
+      <c r="E751">
+        <v>67</v>
+      </c>
+      <c r="F751">
+        <v>30</v>
+      </c>
+      <c r="G751">
+        <v>23</v>
+      </c>
+      <c r="H751">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A752" s="1">
         <v>751</v>
       </c>
@@ -17240,7 +19862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A753" s="1">
         <v>752</v>
       </c>
@@ -17251,7 +19873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A754" s="1">
         <v>753</v>
       </c>
@@ -17262,7 +19884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A755" s="1">
         <v>754</v>
       </c>
@@ -17273,7 +19895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A756" s="1">
         <v>755</v>
       </c>
@@ -17283,8 +19905,23 @@
       <c r="C756" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D756">
+        <v>2</v>
+      </c>
+      <c r="E756">
+        <v>11</v>
+      </c>
+      <c r="F756">
+        <v>13</v>
+      </c>
+      <c r="G756">
+        <v>4</v>
+      </c>
+      <c r="H756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A757" s="1">
         <v>756</v>
       </c>
@@ -17294,8 +19931,23 @@
       <c r="C757" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D757">
+        <v>2</v>
+      </c>
+      <c r="E757">
+        <v>19</v>
+      </c>
+      <c r="F757">
+        <v>11</v>
+      </c>
+      <c r="G757">
+        <v>6</v>
+      </c>
+      <c r="H757">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A758" s="1">
         <v>757</v>
       </c>
@@ -17305,8 +19957,23 @@
       <c r="C758" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D758">
+        <v>14</v>
+      </c>
+      <c r="E758">
+        <v>11</v>
+      </c>
+      <c r="F758">
+        <v>15</v>
+      </c>
+      <c r="G758">
+        <v>18</v>
+      </c>
+      <c r="H758">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A759" s="1">
         <v>758</v>
       </c>
@@ -17317,7 +19984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A760" s="1">
         <v>759</v>
       </c>
@@ -17327,8 +19994,23 @@
       <c r="C760" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D760">
+        <v>18</v>
+      </c>
+      <c r="E760">
+        <v>88</v>
+      </c>
+      <c r="F760">
+        <v>63</v>
+      </c>
+      <c r="G760">
+        <v>64</v>
+      </c>
+      <c r="H760">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A761" s="1">
         <v>760</v>
       </c>
@@ -17338,8 +20020,23 @@
       <c r="C761" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D761">
+        <v>17</v>
+      </c>
+      <c r="E761">
+        <v>99</v>
+      </c>
+      <c r="F761">
+        <v>70</v>
+      </c>
+      <c r="G761">
+        <v>101</v>
+      </c>
+      <c r="H761">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A762" s="1">
         <v>761</v>
       </c>
@@ -17349,8 +20046,23 @@
       <c r="C762" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D762">
+        <v>22</v>
+      </c>
+      <c r="E762">
+        <v>73</v>
+      </c>
+      <c r="F762">
+        <v>57</v>
+      </c>
+      <c r="G762">
+        <v>58</v>
+      </c>
+      <c r="H762">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A763" s="1">
         <v>762</v>
       </c>
@@ -17360,8 +20072,23 @@
       <c r="C763" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D763">
+        <v>63</v>
+      </c>
+      <c r="E763">
+        <v>138</v>
+      </c>
+      <c r="F763">
+        <v>61</v>
+      </c>
+      <c r="G763">
+        <v>127</v>
+      </c>
+      <c r="H763">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A764" s="1">
         <v>763</v>
       </c>
@@ -17371,8 +20098,23 @@
       <c r="C764" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D764">
+        <v>50</v>
+      </c>
+      <c r="E764">
+        <v>25</v>
+      </c>
+      <c r="F764">
+        <v>18</v>
+      </c>
+      <c r="G764">
+        <v>26</v>
+      </c>
+      <c r="H764">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A765" s="1">
         <v>764</v>
       </c>
@@ -17383,7 +20125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A766" s="1">
         <v>765</v>
       </c>
@@ -17393,8 +20135,23 @@
       <c r="C766" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D766">
+        <v>7</v>
+      </c>
+      <c r="E766">
+        <v>13</v>
+      </c>
+      <c r="F766">
+        <v>9</v>
+      </c>
+      <c r="G766">
+        <v>13</v>
+      </c>
+      <c r="H766">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A767" s="1">
         <v>766</v>
       </c>
@@ -17404,8 +20161,23 @@
       <c r="C767" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D767">
+        <v>137</v>
+      </c>
+      <c r="E767">
+        <v>51</v>
+      </c>
+      <c r="F767">
+        <v>52</v>
+      </c>
+      <c r="G767">
+        <v>140</v>
+      </c>
+      <c r="H767">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A768" s="1">
         <v>767</v>
       </c>
@@ -17415,8 +20187,23 @@
       <c r="C768" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D768">
+        <v>93</v>
+      </c>
+      <c r="E768">
+        <v>92</v>
+      </c>
+      <c r="F768">
+        <v>95</v>
+      </c>
+      <c r="G768">
+        <v>165</v>
+      </c>
+      <c r="H768">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A769" s="1">
         <v>768</v>
       </c>
@@ -17426,8 +20213,23 @@
       <c r="C769" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D769">
+        <v>22</v>
+      </c>
+      <c r="E769">
+        <v>52</v>
+      </c>
+      <c r="F769">
+        <v>41</v>
+      </c>
+      <c r="G769">
+        <v>95</v>
+      </c>
+      <c r="H769">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A770" s="1">
         <v>769</v>
       </c>
@@ -17438,7 +20240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A771" s="1">
         <v>770</v>
       </c>
@@ -17448,8 +20250,23 @@
       <c r="C771" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D771">
+        <v>36</v>
+      </c>
+      <c r="E771">
+        <v>129</v>
+      </c>
+      <c r="F771">
+        <v>14</v>
+      </c>
+      <c r="G771">
+        <v>58</v>
+      </c>
+      <c r="H771">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A772" s="1">
         <v>771</v>
       </c>
@@ -17459,8 +20276,23 @@
       <c r="C772" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D772">
+        <v>79</v>
+      </c>
+      <c r="E772">
+        <v>111</v>
+      </c>
+      <c r="F772">
+        <v>98</v>
+      </c>
+      <c r="G772">
+        <v>45</v>
+      </c>
+      <c r="H772">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A773" s="1">
         <v>772</v>
       </c>
@@ -17470,8 +20302,23 @@
       <c r="C773" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D773">
+        <v>2</v>
+      </c>
+      <c r="E773">
+        <v>12</v>
+      </c>
+      <c r="F773">
+        <v>38</v>
+      </c>
+      <c r="G773">
+        <v>106</v>
+      </c>
+      <c r="H773">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A774" s="1">
         <v>773</v>
       </c>
@@ -17481,8 +20328,23 @@
       <c r="C774" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D774">
+        <v>56</v>
+      </c>
+      <c r="E774">
+        <v>111</v>
+      </c>
+      <c r="F774">
+        <v>55</v>
+      </c>
+      <c r="G774">
+        <v>133</v>
+      </c>
+      <c r="H774">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A775" s="1">
         <v>774</v>
       </c>
@@ -17492,8 +20354,23 @@
       <c r="C775" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D775">
+        <v>32</v>
+      </c>
+      <c r="E775">
+        <v>51</v>
+      </c>
+      <c r="F775">
+        <v>44</v>
+      </c>
+      <c r="G775">
+        <v>99</v>
+      </c>
+      <c r="H775">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A776" s="1">
         <v>775</v>
       </c>
@@ -17503,8 +20380,23 @@
       <c r="C776" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D776">
+        <v>3</v>
+      </c>
+      <c r="E776">
+        <v>3</v>
+      </c>
+      <c r="F776">
+        <v>40</v>
+      </c>
+      <c r="G776">
+        <v>37</v>
+      </c>
+      <c r="H776">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A777" s="1">
         <v>776</v>
       </c>
@@ -17514,8 +20406,23 @@
       <c r="C777" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D777">
+        <v>65</v>
+      </c>
+      <c r="E777">
+        <v>39</v>
+      </c>
+      <c r="F777">
+        <v>18</v>
+      </c>
+      <c r="G777">
+        <v>12</v>
+      </c>
+      <c r="H777">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A778" s="1">
         <v>777</v>
       </c>
@@ -17525,8 +20432,23 @@
       <c r="C778" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D778">
+        <v>39</v>
+      </c>
+      <c r="E778">
+        <v>57</v>
+      </c>
+      <c r="F778">
+        <v>2</v>
+      </c>
+      <c r="G778">
+        <v>28</v>
+      </c>
+      <c r="H778">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A779" s="1">
         <v>778</v>
       </c>
@@ -17537,7 +20459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A780" s="1">
         <v>779</v>
       </c>
@@ -17547,8 +20469,23 @@
       <c r="C780" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D780">
+        <v>62</v>
+      </c>
+      <c r="E780">
+        <v>11</v>
+      </c>
+      <c r="F780">
+        <v>25</v>
+      </c>
+      <c r="G780">
+        <v>72</v>
+      </c>
+      <c r="H780">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A781" s="1">
         <v>780</v>
       </c>
@@ -17558,8 +20495,23 @@
       <c r="C781" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D781">
+        <v>97</v>
+      </c>
+      <c r="E781">
+        <v>33</v>
+      </c>
+      <c r="F781">
+        <v>54</v>
+      </c>
+      <c r="G781">
+        <v>45</v>
+      </c>
+      <c r="H781">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A782" s="1">
         <v>781</v>
       </c>
@@ -17570,7 +20522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A783" s="1">
         <v>782</v>
       </c>
@@ -17580,8 +20532,23 @@
       <c r="C783" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D783">
+        <v>69</v>
+      </c>
+      <c r="E783">
+        <v>82</v>
+      </c>
+      <c r="F783">
+        <v>91</v>
+      </c>
+      <c r="G783">
+        <v>81</v>
+      </c>
+      <c r="H783">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A784" s="1">
         <v>783</v>
       </c>
@@ -17591,8 +20558,23 @@
       <c r="C784" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D784">
+        <v>43</v>
+      </c>
+      <c r="E784">
+        <v>61</v>
+      </c>
+      <c r="F784">
+        <v>51</v>
+      </c>
+      <c r="G784">
+        <v>98</v>
+      </c>
+      <c r="H784">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A785" s="1">
         <v>784</v>
       </c>
@@ -17602,8 +20584,23 @@
       <c r="C785" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D785">
+        <v>52</v>
+      </c>
+      <c r="E785">
+        <v>91</v>
+      </c>
+      <c r="F785">
+        <v>44</v>
+      </c>
+      <c r="G785">
+        <v>155</v>
+      </c>
+      <c r="H785">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A786" s="1">
         <v>785</v>
       </c>
@@ -17613,8 +20610,23 @@
       <c r="C786" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D786">
+        <v>38</v>
+      </c>
+      <c r="E786">
+        <v>63</v>
+      </c>
+      <c r="F786">
+        <v>54</v>
+      </c>
+      <c r="G786">
+        <v>102</v>
+      </c>
+      <c r="H786">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A787" s="1">
         <v>786</v>
       </c>
@@ -17624,8 +20636,23 @@
       <c r="C787" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D787">
+        <v>23</v>
+      </c>
+      <c r="E787">
+        <v>65</v>
+      </c>
+      <c r="F787">
+        <v>76</v>
+      </c>
+      <c r="G787">
+        <v>150</v>
+      </c>
+      <c r="H787">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A788" s="1">
         <v>787</v>
       </c>
@@ -17635,8 +20662,23 @@
       <c r="C788" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D788">
+        <v>32</v>
+      </c>
+      <c r="E788">
+        <v>66</v>
+      </c>
+      <c r="F788">
+        <v>65</v>
+      </c>
+      <c r="G788">
+        <v>97</v>
+      </c>
+      <c r="H788">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A789" s="1">
         <v>788</v>
       </c>
@@ -17646,8 +20688,23 @@
       <c r="C789" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D789">
+        <v>54</v>
+      </c>
+      <c r="E789">
+        <v>38</v>
+      </c>
+      <c r="F789">
+        <v>62</v>
+      </c>
+      <c r="G789">
+        <v>118</v>
+      </c>
+      <c r="H789">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A790" s="1">
         <v>789</v>
       </c>
@@ -17657,8 +20714,23 @@
       <c r="C790" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D790">
+        <v>34</v>
+      </c>
+      <c r="E790">
+        <v>83</v>
+      </c>
+      <c r="F790">
+        <v>36</v>
+      </c>
+      <c r="G790">
+        <v>88</v>
+      </c>
+      <c r="H790">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A791" s="1">
         <v>790</v>
       </c>
@@ -17668,8 +20740,23 @@
       <c r="C791" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D791">
+        <v>31</v>
+      </c>
+      <c r="E791">
+        <v>44</v>
+      </c>
+      <c r="F791">
+        <v>45</v>
+      </c>
+      <c r="G791">
+        <v>57</v>
+      </c>
+      <c r="H791">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A792" s="1">
         <v>791</v>
       </c>
@@ -17679,8 +20766,23 @@
       <c r="C792" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D792">
+        <v>94</v>
+      </c>
+      <c r="E792">
+        <v>105</v>
+      </c>
+      <c r="F792">
+        <v>28</v>
+      </c>
+      <c r="G792">
+        <v>119</v>
+      </c>
+      <c r="H792">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A793" s="1">
         <v>792</v>
       </c>
@@ -17690,8 +20792,23 @@
       <c r="C793" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D793">
+        <v>62</v>
+      </c>
+      <c r="E793">
+        <v>114</v>
+      </c>
+      <c r="F793">
+        <v>93</v>
+      </c>
+      <c r="G793">
+        <v>174</v>
+      </c>
+      <c r="H793">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A794" s="1">
         <v>793</v>
       </c>
@@ -17701,8 +20818,23 @@
       <c r="C794" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D794">
+        <v>50</v>
+      </c>
+      <c r="E794">
+        <v>89</v>
+      </c>
+      <c r="F794">
+        <v>76</v>
+      </c>
+      <c r="G794">
+        <v>106</v>
+      </c>
+      <c r="H794">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A795" s="1">
         <v>794</v>
       </c>
@@ -17712,8 +20844,23 @@
       <c r="C795" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D795">
+        <v>77</v>
+      </c>
+      <c r="E795">
+        <v>53</v>
+      </c>
+      <c r="F795">
+        <v>75</v>
+      </c>
+      <c r="G795">
+        <v>117</v>
+      </c>
+      <c r="H795">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A796" s="1">
         <v>795</v>
       </c>
@@ -17723,8 +20870,23 @@
       <c r="C796" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D796">
+        <v>28</v>
+      </c>
+      <c r="E796">
+        <v>53</v>
+      </c>
+      <c r="F796">
+        <v>53</v>
+      </c>
+      <c r="G796">
+        <v>69</v>
+      </c>
+      <c r="H796">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A797" s="1">
         <v>796</v>
       </c>
@@ -17734,8 +20896,23 @@
       <c r="C797" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D797">
+        <v>62</v>
+      </c>
+      <c r="E797">
+        <v>34</v>
+      </c>
+      <c r="F797">
+        <v>53</v>
+      </c>
+      <c r="G797">
+        <v>90</v>
+      </c>
+      <c r="H797">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A798" s="1">
         <v>797</v>
       </c>
@@ -17745,8 +20922,23 @@
       <c r="C798" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D798">
+        <v>31</v>
+      </c>
+      <c r="E798">
+        <v>68</v>
+      </c>
+      <c r="F798">
+        <v>41</v>
+      </c>
+      <c r="G798">
+        <v>52</v>
+      </c>
+      <c r="H798">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="799" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A799" s="1">
         <v>798</v>
       </c>
@@ -17757,7 +20949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A800" s="1">
         <v>799</v>
       </c>
@@ -17767,8 +20959,23 @@
       <c r="C800" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D800">
+        <v>14</v>
+      </c>
+      <c r="E800">
+        <v>24</v>
+      </c>
+      <c r="F800">
+        <v>27</v>
+      </c>
+      <c r="G800">
+        <v>77</v>
+      </c>
+      <c r="H800">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="801" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A801" s="1">
         <v>800</v>
       </c>
@@ -17778,8 +20985,23 @@
       <c r="C801" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D801">
+        <v>100</v>
+      </c>
+      <c r="E801">
+        <v>18</v>
+      </c>
+      <c r="F801">
+        <v>56</v>
+      </c>
+      <c r="G801">
+        <v>71</v>
+      </c>
+      <c r="H801">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A802" s="1">
         <v>801</v>
       </c>
@@ -17790,7 +21012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A803" s="1">
         <v>802</v>
       </c>
@@ -17800,8 +21022,23 @@
       <c r="C803" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D803">
+        <v>92</v>
+      </c>
+      <c r="E803">
+        <v>35</v>
+      </c>
+      <c r="F803">
+        <v>50</v>
+      </c>
+      <c r="G803">
+        <v>47</v>
+      </c>
+      <c r="H803">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="804" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A804" s="1">
         <v>803</v>
       </c>
@@ -17811,8 +21048,23 @@
       <c r="C804" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D804">
+        <v>77</v>
+      </c>
+      <c r="E804">
+        <v>11</v>
+      </c>
+      <c r="F804">
+        <v>76</v>
+      </c>
+      <c r="G804">
+        <v>64</v>
+      </c>
+      <c r="H804">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="805" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A805" s="1">
         <v>804</v>
       </c>
@@ -17823,7 +21075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A806" s="1">
         <v>805</v>
       </c>
@@ -17834,7 +21086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A807" s="1">
         <v>806</v>
       </c>
@@ -17844,8 +21096,23 @@
       <c r="C807" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D807">
+        <v>46</v>
+      </c>
+      <c r="E807">
+        <v>64</v>
+      </c>
+      <c r="F807">
+        <v>21</v>
+      </c>
+      <c r="G807">
+        <v>86</v>
+      </c>
+      <c r="H807">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="808" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A808" s="1">
         <v>807</v>
       </c>
@@ -17855,8 +21122,23 @@
       <c r="C808" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D808">
+        <v>4</v>
+      </c>
+      <c r="E808">
+        <v>4</v>
+      </c>
+      <c r="F808">
+        <v>9</v>
+      </c>
+      <c r="G808">
+        <v>15</v>
+      </c>
+      <c r="H808">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="809" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A809" s="1">
         <v>808</v>
       </c>
@@ -17867,7 +21149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A810" s="1">
         <v>809</v>
       </c>
@@ -17877,8 +21159,23 @@
       <c r="C810" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D810">
+        <v>112</v>
+      </c>
+      <c r="E810">
+        <v>50</v>
+      </c>
+      <c r="F810">
+        <v>1</v>
+      </c>
+      <c r="G810">
+        <v>20</v>
+      </c>
+      <c r="H810">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="811" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A811" s="1">
         <v>810</v>
       </c>
@@ -17888,8 +21185,23 @@
       <c r="C811" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D811">
+        <v>36</v>
+      </c>
+      <c r="E811">
+        <v>53</v>
+      </c>
+      <c r="F811">
+        <v>79</v>
+      </c>
+      <c r="G811">
+        <v>62</v>
+      </c>
+      <c r="H811">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="812" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A812" s="1">
         <v>811</v>
       </c>
@@ -17899,8 +21211,23 @@
       <c r="C812" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D812">
+        <v>41</v>
+      </c>
+      <c r="E812">
+        <v>15</v>
+      </c>
+      <c r="F812">
+        <v>59</v>
+      </c>
+      <c r="G812">
+        <v>122</v>
+      </c>
+      <c r="H812">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="813" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A813" s="1">
         <v>812</v>
       </c>
@@ -17910,8 +21237,23 @@
       <c r="C813" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D813">
+        <v>51</v>
+      </c>
+      <c r="E813">
+        <v>41</v>
+      </c>
+      <c r="F813">
+        <v>29</v>
+      </c>
+      <c r="G813">
+        <v>34</v>
+      </c>
+      <c r="H813">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="814" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A814" s="1">
         <v>813</v>
       </c>
@@ -17922,7 +21264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A815" s="1">
         <v>814</v>
       </c>
@@ -17932,8 +21274,23 @@
       <c r="C815" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D815">
+        <v>9</v>
+      </c>
+      <c r="E815">
+        <v>5</v>
+      </c>
+      <c r="F815">
+        <v>45</v>
+      </c>
+      <c r="G815">
+        <v>102</v>
+      </c>
+      <c r="H815">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="816" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A816" s="1">
         <v>815</v>
       </c>
@@ -17943,8 +21300,23 @@
       <c r="C816" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D816">
+        <v>7</v>
+      </c>
+      <c r="E816">
+        <v>67</v>
+      </c>
+      <c r="F816">
+        <v>36</v>
+      </c>
+      <c r="G816">
+        <v>29</v>
+      </c>
+      <c r="H816">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="817" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A817" s="1">
         <v>816</v>
       </c>
@@ -17955,7 +21327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A818" s="1">
         <v>817</v>
       </c>
@@ -17965,8 +21337,23 @@
       <c r="C818" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D818">
+        <v>54</v>
+      </c>
+      <c r="E818">
+        <v>114</v>
+      </c>
+      <c r="F818">
+        <v>44</v>
+      </c>
+      <c r="G818">
+        <v>70</v>
+      </c>
+      <c r="H818">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="819" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A819" s="1">
         <v>818</v>
       </c>
@@ -17976,8 +21363,23 @@
       <c r="C819" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D819">
+        <v>14</v>
+      </c>
+      <c r="E819">
+        <v>88</v>
+      </c>
+      <c r="F819">
+        <v>47</v>
+      </c>
+      <c r="G819">
+        <v>113</v>
+      </c>
+      <c r="H819">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="820" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A820" s="1">
         <v>819</v>
       </c>
@@ -17987,8 +21389,23 @@
       <c r="C820" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D820">
+        <v>21</v>
+      </c>
+      <c r="E820">
+        <v>214</v>
+      </c>
+      <c r="F820">
+        <v>27</v>
+      </c>
+      <c r="G820">
+        <v>92</v>
+      </c>
+      <c r="H820">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="821" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A821" s="1">
         <v>820</v>
       </c>
@@ -17998,8 +21415,23 @@
       <c r="C821" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D821">
+        <v>21</v>
+      </c>
+      <c r="E821">
+        <v>101</v>
+      </c>
+      <c r="F821">
+        <v>24</v>
+      </c>
+      <c r="G821">
+        <v>65</v>
+      </c>
+      <c r="H821">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="822" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A822" s="1">
         <v>821</v>
       </c>
@@ -18009,8 +21441,23 @@
       <c r="C822" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D822">
+        <v>17</v>
+      </c>
+      <c r="E822">
+        <v>121</v>
+      </c>
+      <c r="F822">
+        <v>28</v>
+      </c>
+      <c r="G822">
+        <v>111</v>
+      </c>
+      <c r="H822">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="823" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A823" s="1">
         <v>822</v>
       </c>
@@ -18021,7 +21468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A824" s="1">
         <v>823</v>
       </c>
@@ -18032,7 +21479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A825" s="1">
         <v>824</v>
       </c>
@@ -18042,8 +21489,23 @@
       <c r="C825" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D825">
+        <v>15</v>
+      </c>
+      <c r="E825">
+        <v>31</v>
+      </c>
+      <c r="F825">
+        <v>15</v>
+      </c>
+      <c r="G825">
+        <v>37</v>
+      </c>
+      <c r="H825">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A826" s="1">
         <v>825</v>
       </c>
@@ -18054,7 +21516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A827" s="1">
         <v>826</v>
       </c>
@@ -18065,7 +21527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A828" s="1">
         <v>827</v>
       </c>
@@ -18075,8 +21537,23 @@
       <c r="C828" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D828">
+        <v>4</v>
+      </c>
+      <c r="E828">
+        <v>5</v>
+      </c>
+      <c r="F828">
+        <v>40</v>
+      </c>
+      <c r="G828">
+        <v>19</v>
+      </c>
+      <c r="H828">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="829" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A829" s="1">
         <v>828</v>
       </c>
@@ -18086,8 +21563,23 @@
       <c r="C829" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D829">
+        <v>30</v>
+      </c>
+      <c r="E829">
+        <v>29</v>
+      </c>
+      <c r="F829">
+        <v>5</v>
+      </c>
+      <c r="G829">
+        <v>3</v>
+      </c>
+      <c r="H829">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A830" s="1">
         <v>829</v>
       </c>
@@ -18097,8 +21589,23 @@
       <c r="C830" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D830">
+        <v>31</v>
+      </c>
+      <c r="E830">
+        <v>27</v>
+      </c>
+      <c r="F830">
+        <v>17</v>
+      </c>
+      <c r="G830">
+        <v>26</v>
+      </c>
+      <c r="H830">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="831" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A831" s="1">
         <v>830</v>
       </c>
@@ -18108,8 +21615,23 @@
       <c r="C831" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D831">
+        <v>28</v>
+      </c>
+      <c r="E831">
+        <v>19</v>
+      </c>
+      <c r="F831">
+        <v>18</v>
+      </c>
+      <c r="G831">
+        <v>27</v>
+      </c>
+      <c r="H831">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="832" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A832" s="1">
         <v>831</v>
       </c>
@@ -18119,8 +21641,23 @@
       <c r="C832" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D832">
+        <v>51</v>
+      </c>
+      <c r="E832">
+        <v>25</v>
+      </c>
+      <c r="F832">
+        <v>26</v>
+      </c>
+      <c r="G832">
+        <v>25</v>
+      </c>
+      <c r="H832">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="833" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A833" s="1">
         <v>832</v>
       </c>
@@ -18130,8 +21667,23 @@
       <c r="C833" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D833">
+        <v>30</v>
+      </c>
+      <c r="E833">
+        <v>63</v>
+      </c>
+      <c r="F833">
+        <v>18</v>
+      </c>
+      <c r="G833">
+        <v>6</v>
+      </c>
+      <c r="H833">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="834" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A834" s="1">
         <v>833</v>
       </c>
@@ -18141,8 +21693,23 @@
       <c r="C834" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D834">
+        <v>62</v>
+      </c>
+      <c r="E834">
+        <v>51</v>
+      </c>
+      <c r="F834">
+        <v>43</v>
+      </c>
+      <c r="G834">
+        <v>13</v>
+      </c>
+      <c r="H834">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="835" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A835" s="1">
         <v>834</v>
       </c>
@@ -18152,8 +21719,23 @@
       <c r="C835" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D835">
+        <v>27</v>
+      </c>
+      <c r="E835">
+        <v>45</v>
+      </c>
+      <c r="F835">
+        <v>29</v>
+      </c>
+      <c r="G835">
+        <v>44</v>
+      </c>
+      <c r="H835">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A836" s="1">
         <v>835</v>
       </c>
@@ -18163,8 +21745,23 @@
       <c r="C836" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D836">
+        <v>27</v>
+      </c>
+      <c r="E836">
+        <v>21</v>
+      </c>
+      <c r="F836">
+        <v>39</v>
+      </c>
+      <c r="G836">
+        <v>39</v>
+      </c>
+      <c r="H836">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="837" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A837" s="1">
         <v>836</v>
       </c>
@@ -18174,8 +21771,23 @@
       <c r="C837" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D837">
+        <v>42</v>
+      </c>
+      <c r="E837">
+        <v>36</v>
+      </c>
+      <c r="F837">
+        <v>10</v>
+      </c>
+      <c r="G837">
+        <v>7</v>
+      </c>
+      <c r="H837">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A838" s="1">
         <v>837</v>
       </c>
@@ -18185,8 +21797,23 @@
       <c r="C838" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D838">
+        <v>39</v>
+      </c>
+      <c r="E838">
+        <v>30</v>
+      </c>
+      <c r="F838">
+        <v>9</v>
+      </c>
+      <c r="G838">
+        <v>10</v>
+      </c>
+      <c r="H838">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A839" s="1">
         <v>838</v>
       </c>
@@ -18195,6 +21822,21 @@
       </c>
       <c r="C839" s="2">
         <v>1</v>
+      </c>
+      <c r="D839">
+        <v>30</v>
+      </c>
+      <c r="E839">
+        <v>11</v>
+      </c>
+      <c r="F839">
+        <v>46</v>
+      </c>
+      <c r="G839">
+        <v>54</v>
+      </c>
+      <c r="H839">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/paez.coffee.uniformity.xlsx
+++ b/data-raw/paez.coffee.uniformity.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="0" windowWidth="8568" windowHeight="8988"/>
+    <workbookView xWindow="6120" yWindow="0" windowWidth="8568" windowHeight="8988"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>plot</t>
   </si>
@@ -33,6 +33,21 @@
   </si>
   <si>
     <t>col</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>Y4</t>
+  </si>
+  <si>
+    <t>Y5</t>
   </si>
 </sst>
 </file>
@@ -401,8 +416,8 @@
   <dimension ref="A1:H839"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A809" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H840" sqref="H840:H853"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,20 +437,20 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="F1">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="G1">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="H1">
+      <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">

--- a/data-raw/paez.coffee.uniformity.xlsx
+++ b/data-raw/paez.coffee.uniformity.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="0" windowWidth="8568" windowHeight="8988"/>
+    <workbookView xWindow="7140" yWindow="0" windowWidth="8568" windowHeight="8988"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,7 +767,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>15</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>16</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>27</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>28</v>

--- a/data-raw/paez.coffee.uniformity.xlsx
+++ b/data-raw/paez.coffee.uniformity.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7612794-B344-4961-9BC5-0946D34349DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="0" windowWidth="8568" windowHeight="8988"/>
+    <workbookView xWindow="40965" yWindow="2955" windowWidth="11385" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -53,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,9 +129,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -157,7 +169,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -263,7 +275,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -405,14 +417,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H839"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -420,14 +432,14 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="8" width="7.21875" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.90625" style="2"/>
+    <col min="4" max="8" width="7.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -479,7 +491,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -505,7 +517,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -531,7 +543,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -557,7 +569,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -583,7 +595,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -609,7 +621,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -635,7 +647,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -661,7 +673,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -687,7 +699,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -713,7 +725,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -739,7 +751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -765,7 +777,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -791,7 +803,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -817,7 +829,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -843,7 +855,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -869,7 +881,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -895,7 +907,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -921,7 +933,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -947,7 +959,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -973,7 +985,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -999,7 +1011,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1025,7 +1037,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1051,7 +1063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1077,7 +1089,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1103,7 +1115,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1129,7 +1141,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1155,7 +1167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1181,7 +1193,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1207,7 +1219,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1233,7 +1245,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1259,7 +1271,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1285,7 +1297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1311,7 +1323,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1337,7 +1349,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1363,7 +1375,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1389,7 +1401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1415,7 +1427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1441,7 +1453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1467,7 +1479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1493,7 +1505,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1519,7 +1531,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1545,7 +1557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1571,7 +1583,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1597,7 +1609,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1623,7 +1635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1649,7 +1661,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1675,7 +1687,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1701,7 +1713,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1727,7 +1739,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1753,7 +1765,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1779,7 +1791,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1805,7 +1817,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1831,7 +1843,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1857,7 +1869,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1883,7 +1895,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1909,7 +1921,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1935,7 +1947,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1961,7 +1973,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1987,7 +1999,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2013,7 +2025,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2039,7 +2051,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2065,7 +2077,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2091,7 +2103,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2117,7 +2129,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2143,7 +2155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2169,7 +2181,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2195,7 +2207,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2221,7 +2233,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2247,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2273,7 +2285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2299,7 +2311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2325,7 +2337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2351,7 +2363,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2377,7 +2389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2403,7 +2415,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2429,7 +2441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2455,7 +2467,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2481,7 +2493,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2507,7 +2519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2533,7 +2545,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2559,7 +2571,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2585,7 +2597,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2611,7 +2623,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2637,7 +2649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2663,7 +2675,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2689,7 +2701,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2715,7 +2727,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2741,7 +2753,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2767,7 +2779,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2793,7 +2805,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2819,7 +2831,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2845,7 +2857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2871,7 +2883,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2897,7 +2909,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2923,7 +2935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2949,7 +2961,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2975,7 +2987,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3001,7 +3013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3027,7 +3039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3053,7 +3065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3079,7 +3091,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3105,7 +3117,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3131,7 +3143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3157,7 +3169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3183,7 +3195,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3209,7 +3221,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3235,7 +3247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3261,7 +3273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3287,7 +3299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3313,7 +3325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3339,7 +3351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3365,7 +3377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3391,7 +3403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3417,7 +3429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3443,7 +3455,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3469,7 +3481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3495,7 +3507,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3521,7 +3533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3547,7 +3559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3573,7 +3585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3599,7 +3611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3625,7 +3637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3651,7 +3663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3677,7 +3689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3703,7 +3715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3729,7 +3741,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3755,7 +3767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3781,7 +3793,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3807,7 +3819,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3833,7 +3845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3859,7 +3871,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3885,7 +3897,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3911,7 +3923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3937,7 +3949,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3963,7 +3975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3989,7 +4001,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -4015,7 +4027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -4041,7 +4053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -4067,7 +4079,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -4093,7 +4105,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -4119,7 +4131,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -4145,7 +4157,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -4171,7 +4183,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -4197,7 +4209,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -4223,7 +4235,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -4249,7 +4261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -4275,7 +4287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -4301,7 +4313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -4327,7 +4339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -4353,7 +4365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -4379,7 +4391,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -4405,7 +4417,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -4431,7 +4443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -4457,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -4483,7 +4495,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -4509,7 +4521,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -4535,7 +4547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -4561,7 +4573,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -4587,7 +4599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -4613,7 +4625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -4639,7 +4651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -4665,7 +4677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -4691,7 +4703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4717,7 +4729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4743,7 +4755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4769,7 +4781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4795,7 +4807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4821,7 +4833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4847,7 +4859,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4873,7 +4885,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4899,7 +4911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4925,7 +4937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4951,7 +4963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4977,7 +4989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -5003,7 +5015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -5029,7 +5041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -5055,7 +5067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -5081,7 +5093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -5107,7 +5119,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -5133,7 +5145,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -5159,7 +5171,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -5185,7 +5197,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -5211,7 +5223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -5237,7 +5249,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -5263,7 +5275,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -5289,7 +5301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -5315,7 +5327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -5341,7 +5353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -5367,7 +5379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -5393,7 +5405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -5419,7 +5431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -5445,7 +5457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -5471,7 +5483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -5497,7 +5509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -5523,7 +5535,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -5549,7 +5561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -5575,7 +5587,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -5601,7 +5613,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -5627,7 +5639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -5653,7 +5665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -5679,7 +5691,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -5705,7 +5717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -5731,7 +5743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -5757,7 +5769,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -5783,7 +5795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -5809,7 +5821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -5835,7 +5847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -5861,7 +5873,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -5887,7 +5899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -5913,7 +5925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -5939,7 +5951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -5965,7 +5977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -5991,7 +6003,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -6017,7 +6029,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -6043,7 +6055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -6069,7 +6081,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -6095,7 +6107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -6121,7 +6133,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -6147,7 +6159,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -6173,7 +6185,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -6199,7 +6211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -6225,7 +6237,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -6251,7 +6263,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -6277,7 +6289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -6303,7 +6315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -6329,7 +6341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -6355,7 +6367,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -6381,7 +6393,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -6407,7 +6419,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -6433,7 +6445,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -6459,7 +6471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -6485,7 +6497,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -6511,7 +6523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -6537,7 +6549,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -6563,7 +6575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -6589,7 +6601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -6615,7 +6627,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -6641,7 +6653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -6667,7 +6679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -6693,7 +6705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -6719,7 +6731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -6745,7 +6757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -6771,7 +6783,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -6797,7 +6809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -6823,7 +6835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -6849,7 +6861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -6875,7 +6887,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -6901,7 +6913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -6927,7 +6939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -6953,7 +6965,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -6979,7 +6991,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -7005,7 +7017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -7031,7 +7043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -7057,7 +7069,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -7083,7 +7095,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -7109,7 +7121,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -7135,7 +7147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -7161,7 +7173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -7187,7 +7199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -7213,7 +7225,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -7239,7 +7251,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -7265,7 +7277,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -7291,7 +7303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -7317,7 +7329,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -7343,7 +7355,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -7369,7 +7381,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -7395,7 +7407,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -7421,7 +7433,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -7447,7 +7459,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -7473,7 +7485,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -7499,7 +7511,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -7525,7 +7537,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -7551,7 +7563,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -7577,7 +7589,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -7603,7 +7615,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -7629,7 +7641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -7655,7 +7667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -7681,7 +7693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -7707,7 +7719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -7733,7 +7745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -7759,7 +7771,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -7785,7 +7797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -7811,7 +7823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -7837,7 +7849,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -7863,7 +7875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -7889,7 +7901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -7915,7 +7927,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -7941,7 +7953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -7967,7 +7979,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -7993,7 +8005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -8019,7 +8031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -8045,7 +8057,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -8071,7 +8083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -8097,7 +8109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -8123,7 +8135,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -8149,7 +8161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -8175,7 +8187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -8201,7 +8213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -8227,7 +8239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -8253,7 +8265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -8279,7 +8291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -8305,7 +8317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -8331,7 +8343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -8357,7 +8369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -8383,7 +8395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -8409,7 +8421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -8435,7 +8447,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -8461,7 +8473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -8487,7 +8499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -8513,7 +8525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -8539,7 +8551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -8565,7 +8577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -8591,7 +8603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -8617,7 +8629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -8643,7 +8655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -8669,7 +8681,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -8695,7 +8707,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -8721,7 +8733,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -8747,7 +8759,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -8773,7 +8785,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -8799,7 +8811,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -8825,7 +8837,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -8851,7 +8863,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -8877,7 +8889,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -8903,7 +8915,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -8929,7 +8941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -8955,7 +8967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -8981,7 +8993,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -9007,7 +9019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -9033,7 +9045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -9059,7 +9071,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -9085,7 +9097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -9111,7 +9123,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -9137,7 +9149,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -9163,7 +9175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -9189,7 +9201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -9215,7 +9227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -9241,7 +9253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -9267,7 +9279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -9293,7 +9305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -9319,7 +9331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -9345,7 +9357,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -9371,7 +9383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -9397,7 +9409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -9423,7 +9435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -9449,7 +9461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -9475,7 +9487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -9501,7 +9513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -9527,7 +9539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -9553,7 +9565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -9579,7 +9591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -9605,7 +9617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -9631,7 +9643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -9657,7 +9669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -9683,7 +9695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -9709,7 +9721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -9735,7 +9747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -9761,7 +9773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -9787,7 +9799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -9813,7 +9825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -9836,7 +9848,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -9862,7 +9874,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -9888,7 +9900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -9914,7 +9926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -9940,7 +9952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -9966,7 +9978,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -9992,7 +10004,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -10018,7 +10030,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -10044,7 +10056,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -10070,7 +10082,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -10096,7 +10108,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -10122,7 +10134,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -10148,7 +10160,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -10174,7 +10186,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -10200,7 +10212,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -10226,7 +10238,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -10252,7 +10264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -10278,7 +10290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -10304,7 +10316,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -10330,7 +10342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -10356,7 +10368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -10382,7 +10394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -10408,7 +10420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -10434,7 +10446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -10460,7 +10472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -10486,7 +10498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -10512,7 +10524,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -10538,7 +10550,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -10564,7 +10576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -10590,7 +10602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -10616,7 +10628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -10642,7 +10654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -10668,7 +10680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -10694,7 +10706,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -10720,7 +10732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -10746,7 +10758,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -10772,7 +10784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -10798,7 +10810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -10824,7 +10836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -10850,7 +10862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -10876,7 +10888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -10902,7 +10914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -10928,7 +10940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -10954,7 +10966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -10980,7 +10992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -11006,7 +11018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -11032,7 +11044,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -11058,7 +11070,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -11084,7 +11096,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -11110,7 +11122,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -11136,7 +11148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -11162,7 +11174,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -11188,7 +11200,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -11214,7 +11226,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -11240,7 +11252,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -11266,7 +11278,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -11292,7 +11304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -11318,7 +11330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -11344,7 +11356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -11370,7 +11382,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -11396,7 +11408,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -11422,7 +11434,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -11448,7 +11460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -11474,7 +11486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -11500,7 +11512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -11526,7 +11538,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -11552,7 +11564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -11578,7 +11590,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -11604,7 +11616,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -11630,7 +11642,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -11656,7 +11668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -11682,7 +11694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -11708,7 +11720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -11734,7 +11746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -11760,7 +11772,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -11786,7 +11798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -11812,7 +11824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -11838,7 +11850,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -11864,7 +11876,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -11890,7 +11902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -11916,7 +11928,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -11942,7 +11954,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -11968,7 +11980,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -11994,7 +12006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -12020,7 +12032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -12046,7 +12058,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -12072,7 +12084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -12098,7 +12110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -12124,7 +12136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -12150,7 +12162,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -12176,7 +12188,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -12202,7 +12214,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -12228,7 +12240,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -12254,7 +12266,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -12280,7 +12292,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -12306,7 +12318,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -12332,7 +12344,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -12358,7 +12370,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -12384,7 +12396,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -12410,7 +12422,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -12436,7 +12448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -12462,7 +12474,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -12488,7 +12500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -12514,7 +12526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -12540,7 +12552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -12566,7 +12578,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -12592,7 +12604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -12618,7 +12630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -12644,7 +12656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -12670,7 +12682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -12696,7 +12708,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -12722,7 +12734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -12748,7 +12760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -12774,7 +12786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -12800,7 +12812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -12826,7 +12838,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -12852,7 +12864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -12878,7 +12890,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -12904,7 +12916,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -12930,7 +12942,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -12956,7 +12968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -12982,7 +12994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -13008,7 +13020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -13034,7 +13046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -13060,7 +13072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -13086,7 +13098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -13112,7 +13124,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -13138,7 +13150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -13164,7 +13176,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -13190,7 +13202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -13216,7 +13228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -13242,7 +13254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -13268,7 +13280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -13294,7 +13306,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -13320,7 +13332,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -13346,7 +13358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -13372,7 +13384,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -13398,7 +13410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -13424,7 +13436,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
         <v>500</v>
       </c>
@@ -13450,7 +13462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
         <v>501</v>
       </c>
@@ -13476,7 +13488,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
         <v>502</v>
       </c>
@@ -13502,7 +13514,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
         <v>503</v>
       </c>
@@ -13528,7 +13540,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
         <v>504</v>
       </c>
@@ -13554,7 +13566,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
         <v>505</v>
       </c>
@@ -13580,7 +13592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
         <v>506</v>
       </c>
@@ -13606,7 +13618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
         <v>507</v>
       </c>
@@ -13632,7 +13644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A509" s="1">
         <v>508</v>
       </c>
@@ -13658,7 +13670,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A510" s="1">
         <v>509</v>
       </c>
@@ -13684,7 +13696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A511" s="1">
         <v>510</v>
       </c>
@@ -13710,7 +13722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A512" s="1">
         <v>511</v>
       </c>
@@ -13736,7 +13748,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A513" s="1">
         <v>512</v>
       </c>
@@ -13762,7 +13774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A514" s="1">
         <v>513</v>
       </c>
@@ -13788,7 +13800,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A515" s="1">
         <v>514</v>
       </c>
@@ -13814,7 +13826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A516" s="1">
         <v>515</v>
       </c>
@@ -13837,7 +13849,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A517" s="1">
         <v>516</v>
       </c>
@@ -13863,7 +13875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A518" s="1">
         <v>517</v>
       </c>
@@ -13889,7 +13901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A519" s="1">
         <v>518</v>
       </c>
@@ -13915,7 +13927,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A520" s="1">
         <v>519</v>
       </c>
@@ -13941,7 +13953,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
         <v>520</v>
       </c>
@@ -13967,7 +13979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A522" s="1">
         <v>521</v>
       </c>
@@ -13993,7 +14005,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A523" s="1">
         <v>522</v>
       </c>
@@ -14019,7 +14031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A524" s="1">
         <v>523</v>
       </c>
@@ -14045,7 +14057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A525" s="1">
         <v>524</v>
       </c>
@@ -14071,7 +14083,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A526" s="1">
         <v>525</v>
       </c>
@@ -14097,7 +14109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A527" s="1">
         <v>526</v>
       </c>
@@ -14123,7 +14135,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A528" s="1">
         <v>527</v>
       </c>
@@ -14149,7 +14161,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A529" s="1">
         <v>528</v>
       </c>
@@ -14175,7 +14187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A530" s="1">
         <v>529</v>
       </c>
@@ -14201,7 +14213,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A531" s="1">
         <v>530</v>
       </c>
@@ -14227,7 +14239,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A532" s="1">
         <v>531</v>
       </c>
@@ -14253,7 +14265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A533" s="1">
         <v>532</v>
       </c>
@@ -14279,7 +14291,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A534" s="1">
         <v>533</v>
       </c>
@@ -14305,7 +14317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A535" s="1">
         <v>534</v>
       </c>
@@ -14331,7 +14343,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A536" s="1">
         <v>535</v>
       </c>
@@ -14357,7 +14369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A537" s="1">
         <v>536</v>
       </c>
@@ -14383,7 +14395,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A538" s="1">
         <v>537</v>
       </c>
@@ -14409,7 +14421,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A539" s="1">
         <v>538</v>
       </c>
@@ -14435,7 +14447,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A540" s="1">
         <v>539</v>
       </c>
@@ -14461,7 +14473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A541" s="1">
         <v>540</v>
       </c>
@@ -14487,7 +14499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A542" s="1">
         <v>541</v>
       </c>
@@ -14513,7 +14525,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A543" s="1">
         <v>542</v>
       </c>
@@ -14539,7 +14551,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A544" s="1">
         <v>543</v>
       </c>
@@ -14565,7 +14577,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A545" s="1">
         <v>544</v>
       </c>
@@ -14591,7 +14603,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A546" s="1">
         <v>545</v>
       </c>
@@ -14617,7 +14629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A547" s="1">
         <v>546</v>
       </c>
@@ -14643,7 +14655,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A548" s="1">
         <v>547</v>
       </c>
@@ -14669,7 +14681,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A549" s="1">
         <v>548</v>
       </c>
@@ -14695,7 +14707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A550" s="1">
         <v>549</v>
       </c>
@@ -14718,7 +14730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A551" s="1">
         <v>550</v>
       </c>
@@ -14744,7 +14756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A552" s="1">
         <v>551</v>
       </c>
@@ -14770,7 +14782,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A553" s="1">
         <v>552</v>
       </c>
@@ -14796,7 +14808,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A554" s="1">
         <v>553</v>
       </c>
@@ -14822,7 +14834,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A555" s="1">
         <v>554</v>
       </c>
@@ -14848,7 +14860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A556" s="1">
         <v>555</v>
       </c>
@@ -14874,7 +14886,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A557" s="1">
         <v>556</v>
       </c>
@@ -14900,7 +14912,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A558" s="1">
         <v>557</v>
       </c>
@@ -14926,7 +14938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A559" s="1">
         <v>558</v>
       </c>
@@ -14952,7 +14964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A560" s="1">
         <v>559</v>
       </c>
@@ -14978,7 +14990,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A561" s="1">
         <v>560</v>
       </c>
@@ -15004,7 +15016,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A562" s="1">
         <v>561</v>
       </c>
@@ -15030,7 +15042,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A563" s="1">
         <v>562</v>
       </c>
@@ -15056,7 +15068,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A564" s="1">
         <v>563</v>
       </c>
@@ -15082,7 +15094,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A565" s="1">
         <v>564</v>
       </c>
@@ -15108,7 +15120,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A566" s="1">
         <v>565</v>
       </c>
@@ -15134,7 +15146,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A567" s="1">
         <v>566</v>
       </c>
@@ -15160,7 +15172,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A568" s="1">
         <v>567</v>
       </c>
@@ -15186,7 +15198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A569" s="1">
         <v>568</v>
       </c>
@@ -15212,7 +15224,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A570" s="1">
         <v>569</v>
       </c>
@@ -15238,7 +15250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A571" s="1">
         <v>570</v>
       </c>
@@ -15264,7 +15276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A572" s="1">
         <v>571</v>
       </c>
@@ -15290,7 +15302,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A573" s="1">
         <v>572</v>
       </c>
@@ -15316,7 +15328,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A574" s="1">
         <v>573</v>
       </c>
@@ -15339,7 +15351,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A575" s="1">
         <v>574</v>
       </c>
@@ -15365,7 +15377,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A576" s="1">
         <v>575</v>
       </c>
@@ -15391,7 +15403,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A577" s="1">
         <v>576</v>
       </c>
@@ -15417,7 +15429,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A578" s="1">
         <v>577</v>
       </c>
@@ -15443,7 +15455,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A579" s="1">
         <v>578</v>
       </c>
@@ -15469,7 +15481,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A580" s="1">
         <v>579</v>
       </c>
@@ -15495,7 +15507,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A581" s="1">
         <v>580</v>
       </c>
@@ -15521,7 +15533,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A582" s="1">
         <v>581</v>
       </c>
@@ -15547,7 +15559,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A583" s="1">
         <v>582</v>
       </c>
@@ -15573,7 +15585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A584" s="1">
         <v>583</v>
       </c>
@@ -15599,7 +15611,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A585" s="1">
         <v>584</v>
       </c>
@@ -15625,7 +15637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A586" s="1">
         <v>585</v>
       </c>
@@ -15651,7 +15663,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A587" s="1">
         <v>586</v>
       </c>
@@ -15677,7 +15689,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A588" s="1">
         <v>587</v>
       </c>
@@ -15703,7 +15715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A589" s="1">
         <v>588</v>
       </c>
@@ -15729,7 +15741,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A590" s="1">
         <v>589</v>
       </c>
@@ -15755,7 +15767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A591" s="1">
         <v>590</v>
       </c>
@@ -15781,7 +15793,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A592" s="1">
         <v>591</v>
       </c>
@@ -15807,7 +15819,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A593" s="1">
         <v>592</v>
       </c>
@@ -15833,7 +15845,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A594" s="1">
         <v>593</v>
       </c>
@@ -15859,7 +15871,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A595" s="1">
         <v>594</v>
       </c>
@@ -15885,7 +15897,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A596" s="1">
         <v>595</v>
       </c>
@@ -15911,7 +15923,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A597" s="1">
         <v>596</v>
       </c>
@@ -15937,7 +15949,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A598" s="1">
         <v>597</v>
       </c>
@@ -15963,7 +15975,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A599" s="1">
         <v>598</v>
       </c>
@@ -15989,7 +16001,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A600" s="1">
         <v>599</v>
       </c>
@@ -16015,7 +16027,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A601" s="1">
         <v>600</v>
       </c>
@@ -16041,7 +16053,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A602" s="1">
         <v>601</v>
       </c>
@@ -16067,7 +16079,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A603" s="1">
         <v>602</v>
       </c>
@@ -16093,7 +16105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A604" s="1">
         <v>603</v>
       </c>
@@ -16119,7 +16131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A605" s="1">
         <v>604</v>
       </c>
@@ -16145,7 +16157,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A606" s="1">
         <v>605</v>
       </c>
@@ -16171,7 +16183,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A607" s="1">
         <v>606</v>
       </c>
@@ -16197,7 +16209,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A608" s="1">
         <v>607</v>
       </c>
@@ -16223,7 +16235,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A609" s="1">
         <v>608</v>
       </c>
@@ -16249,7 +16261,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A610" s="1">
         <v>609</v>
       </c>
@@ -16275,7 +16287,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A611" s="1">
         <v>610</v>
       </c>
@@ -16301,7 +16313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A612" s="1">
         <v>611</v>
       </c>
@@ -16327,7 +16339,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A613" s="1">
         <v>612</v>
       </c>
@@ -16353,7 +16365,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A614" s="1">
         <v>613</v>
       </c>
@@ -16379,7 +16391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A615" s="1">
         <v>614</v>
       </c>
@@ -16405,7 +16417,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A616" s="1">
         <v>615</v>
       </c>
@@ -16431,7 +16443,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A617" s="1">
         <v>616</v>
       </c>
@@ -16457,7 +16469,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A618" s="1">
         <v>617</v>
       </c>
@@ -16483,7 +16495,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A619" s="1">
         <v>618</v>
       </c>
@@ -16509,7 +16521,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A620" s="1">
         <v>619</v>
       </c>
@@ -16535,7 +16547,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A621" s="1">
         <v>620</v>
       </c>
@@ -16561,7 +16573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A622" s="1">
         <v>621</v>
       </c>
@@ -16587,7 +16599,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A623" s="1">
         <v>622</v>
       </c>
@@ -16613,7 +16625,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A624" s="1">
         <v>623</v>
       </c>
@@ -16639,7 +16651,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A625" s="1">
         <v>624</v>
       </c>
@@ -16665,7 +16677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A626" s="1">
         <v>625</v>
       </c>
@@ -16691,7 +16703,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A627" s="1">
         <v>626</v>
       </c>
@@ -16717,7 +16729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A628" s="1">
         <v>627</v>
       </c>
@@ -16743,7 +16755,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A629" s="1">
         <v>628</v>
       </c>
@@ -16769,7 +16781,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A630" s="1">
         <v>629</v>
       </c>
@@ -16795,7 +16807,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A631" s="1">
         <v>630</v>
       </c>
@@ -16821,7 +16833,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A632" s="1">
         <v>631</v>
       </c>
@@ -16847,7 +16859,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A633" s="1">
         <v>632</v>
       </c>
@@ -16873,7 +16885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A634" s="1">
         <v>633</v>
       </c>
@@ -16899,7 +16911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A635" s="1">
         <v>634</v>
       </c>
@@ -16925,7 +16937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A636" s="1">
         <v>635</v>
       </c>
@@ -16951,7 +16963,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A637" s="1">
         <v>636</v>
       </c>
@@ -16977,7 +16989,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A638" s="1">
         <v>637</v>
       </c>
@@ -17003,7 +17015,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A639" s="1">
         <v>638</v>
       </c>
@@ -17029,7 +17041,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A640" s="1">
         <v>639</v>
       </c>
@@ -17055,7 +17067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A641" s="1">
         <v>640</v>
       </c>
@@ -17081,7 +17093,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A642" s="1">
         <v>641</v>
       </c>
@@ -17107,7 +17119,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A643" s="1">
         <v>642</v>
       </c>
@@ -17133,7 +17145,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A644" s="1">
         <v>643</v>
       </c>
@@ -17159,7 +17171,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A645" s="1">
         <v>644</v>
       </c>
@@ -17185,7 +17197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A646" s="1">
         <v>645</v>
       </c>
@@ -17211,7 +17223,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A647" s="1">
         <v>646</v>
       </c>
@@ -17237,7 +17249,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A648" s="1">
         <v>647</v>
       </c>
@@ -17263,7 +17275,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A649" s="1">
         <v>648</v>
       </c>
@@ -17289,7 +17301,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A650" s="1">
         <v>649</v>
       </c>
@@ -17315,7 +17327,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A651" s="1">
         <v>650</v>
       </c>
@@ -17341,7 +17353,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A652" s="1">
         <v>651</v>
       </c>
@@ -17367,7 +17379,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A653" s="1">
         <v>652</v>
       </c>
@@ -17393,7 +17405,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A654" s="1">
         <v>653</v>
       </c>
@@ -17419,7 +17431,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A655" s="1">
         <v>654</v>
       </c>
@@ -17445,7 +17457,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A656" s="1">
         <v>655</v>
       </c>
@@ -17471,7 +17483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A657" s="1">
         <v>656</v>
       </c>
@@ -17497,7 +17509,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A658" s="1">
         <v>657</v>
       </c>
@@ -17523,7 +17535,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A659" s="1">
         <v>658</v>
       </c>
@@ -17549,7 +17561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A660" s="1">
         <v>659</v>
       </c>
@@ -17575,7 +17587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A661" s="1">
         <v>660</v>
       </c>
@@ -17601,7 +17613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A662" s="1">
         <v>661</v>
       </c>
@@ -17627,7 +17639,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A663" s="1">
         <v>662</v>
       </c>
@@ -17653,7 +17665,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A664" s="1">
         <v>663</v>
       </c>
@@ -17679,7 +17691,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A665" s="1">
         <v>664</v>
       </c>
@@ -17705,7 +17717,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A666" s="1">
         <v>665</v>
       </c>
@@ -17731,7 +17743,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A667" s="1">
         <v>666</v>
       </c>
@@ -17757,7 +17769,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A668" s="1">
         <v>667</v>
       </c>
@@ -17783,7 +17795,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A669" s="1">
         <v>668</v>
       </c>
@@ -17809,7 +17821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A670" s="1">
         <v>669</v>
       </c>
@@ -17835,7 +17847,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A671" s="1">
         <v>670</v>
       </c>
@@ -17861,7 +17873,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A672" s="1">
         <v>671</v>
       </c>
@@ -17887,7 +17899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A673" s="1">
         <v>672</v>
       </c>
@@ -17913,7 +17925,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A674" s="1">
         <v>673</v>
       </c>
@@ -17939,7 +17951,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A675" s="1">
         <v>674</v>
       </c>
@@ -17965,7 +17977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A676" s="1">
         <v>675</v>
       </c>
@@ -17991,7 +18003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A677" s="1">
         <v>676</v>
       </c>
@@ -18017,7 +18029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A678" s="1">
         <v>677</v>
       </c>
@@ -18043,7 +18055,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A679" s="1">
         <v>678</v>
       </c>
@@ -18069,7 +18081,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A680" s="1">
         <v>679</v>
       </c>
@@ -18095,7 +18107,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A681" s="1">
         <v>680</v>
       </c>
@@ -18121,7 +18133,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A682" s="1">
         <v>681</v>
       </c>
@@ -18147,7 +18159,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A683" s="1">
         <v>682</v>
       </c>
@@ -18173,7 +18185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A684" s="1">
         <v>683</v>
       </c>
@@ -18199,7 +18211,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A685" s="1">
         <v>684</v>
       </c>
@@ -18225,7 +18237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A686" s="1">
         <v>685</v>
       </c>
@@ -18251,7 +18263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A687" s="1">
         <v>686</v>
       </c>
@@ -18277,7 +18289,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A688" s="1">
         <v>687</v>
       </c>
@@ -18303,7 +18315,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A689" s="1">
         <v>688</v>
       </c>
@@ -18329,7 +18341,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A690" s="1">
         <v>689</v>
       </c>
@@ -18355,7 +18367,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A691" s="1">
         <v>690</v>
       </c>
@@ -18381,7 +18393,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A692" s="1">
         <v>691</v>
       </c>
@@ -18407,7 +18419,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A693" s="1">
         <v>692</v>
       </c>
@@ -18433,7 +18445,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A694" s="1">
         <v>693</v>
       </c>
@@ -18459,7 +18471,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A695" s="1">
         <v>694</v>
       </c>
@@ -18485,7 +18497,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A696" s="1">
         <v>695</v>
       </c>
@@ -18511,7 +18523,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A697" s="1">
         <v>696</v>
       </c>
@@ -18537,7 +18549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A698" s="1">
         <v>697</v>
       </c>
@@ -18563,7 +18575,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A699" s="1">
         <v>698</v>
       </c>
@@ -18589,7 +18601,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A700" s="1">
         <v>699</v>
       </c>
@@ -18615,7 +18627,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A701" s="1">
         <v>700</v>
       </c>
@@ -18641,7 +18653,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A702" s="1">
         <v>701</v>
       </c>
@@ -18667,7 +18679,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A703" s="1">
         <v>702</v>
       </c>
@@ -18693,7 +18705,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A704" s="1">
         <v>703</v>
       </c>
@@ -18719,7 +18731,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A705" s="1">
         <v>704</v>
       </c>
@@ -18745,7 +18757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A706" s="1">
         <v>705</v>
       </c>
@@ -18771,7 +18783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A707" s="1">
         <v>706</v>
       </c>
@@ -18797,7 +18809,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A708" s="1">
         <v>707</v>
       </c>
@@ -18823,7 +18835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A709" s="1">
         <v>708</v>
       </c>
@@ -18849,7 +18861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A710" s="1">
         <v>709</v>
       </c>
@@ -18875,7 +18887,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A711" s="1">
         <v>710</v>
       </c>
@@ -18901,7 +18913,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A712" s="1">
         <v>711</v>
       </c>
@@ -18927,7 +18939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A713" s="1">
         <v>712</v>
       </c>
@@ -18953,7 +18965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A714" s="1">
         <v>713</v>
       </c>
@@ -18979,7 +18991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A715" s="1">
         <v>714</v>
       </c>
@@ -19005,7 +19017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A716" s="1">
         <v>715</v>
       </c>
@@ -19031,7 +19043,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A717" s="1">
         <v>716</v>
       </c>
@@ -19057,7 +19069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A718" s="1">
         <v>717</v>
       </c>
@@ -19083,7 +19095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A719" s="1">
         <v>718</v>
       </c>
@@ -19109,7 +19121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A720" s="1">
         <v>719</v>
       </c>
@@ -19135,7 +19147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A721" s="1">
         <v>720</v>
       </c>
@@ -19161,7 +19173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A722" s="1">
         <v>721</v>
       </c>
@@ -19187,7 +19199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A723" s="1">
         <v>722</v>
       </c>
@@ -19213,7 +19225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A724" s="1">
         <v>723</v>
       </c>
@@ -19239,7 +19251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A725" s="1">
         <v>724</v>
       </c>
@@ -19265,7 +19277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A726" s="1">
         <v>725</v>
       </c>
@@ -19291,7 +19303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A727" s="1">
         <v>726</v>
       </c>
@@ -19317,7 +19329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A728" s="1">
         <v>727</v>
       </c>
@@ -19343,7 +19355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A729" s="1">
         <v>728</v>
       </c>
@@ -19354,7 +19366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A730" s="1">
         <v>729</v>
       </c>
@@ -19380,7 +19392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A731" s="1">
         <v>730</v>
       </c>
@@ -19391,7 +19403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A732" s="1">
         <v>731</v>
       </c>
@@ -19417,7 +19429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A733" s="1">
         <v>732</v>
       </c>
@@ -19443,7 +19455,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A734" s="1">
         <v>733</v>
       </c>
@@ -19469,7 +19481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A735" s="1">
         <v>734</v>
       </c>
@@ -19495,7 +19507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A736" s="1">
         <v>735</v>
       </c>
@@ -19521,7 +19533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A737" s="1">
         <v>736</v>
       </c>
@@ -19547,7 +19559,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A738" s="1">
         <v>737</v>
       </c>
@@ -19558,7 +19570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A739" s="1">
         <v>738</v>
       </c>
@@ -19584,7 +19596,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A740" s="1">
         <v>739</v>
       </c>
@@ -19610,7 +19622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A741" s="1">
         <v>740</v>
       </c>
@@ -19636,7 +19648,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A742" s="1">
         <v>741</v>
       </c>
@@ -19662,7 +19674,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A743" s="1">
         <v>742</v>
       </c>
@@ -19673,7 +19685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A744" s="1">
         <v>743</v>
       </c>
@@ -19699,7 +19711,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A745" s="1">
         <v>744</v>
       </c>
@@ -19710,7 +19722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A746" s="1">
         <v>745</v>
       </c>
@@ -19736,7 +19748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A747" s="1">
         <v>746</v>
       </c>
@@ -19762,7 +19774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A748" s="1">
         <v>747</v>
       </c>
@@ -19788,7 +19800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A749" s="1">
         <v>748</v>
       </c>
@@ -19814,7 +19826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A750" s="1">
         <v>749</v>
       </c>
@@ -19840,7 +19852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A751" s="1">
         <v>750</v>
       </c>
@@ -19866,7 +19878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A752" s="1">
         <v>751</v>
       </c>
@@ -19877,7 +19889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A753" s="1">
         <v>752</v>
       </c>
@@ -19888,7 +19900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A754" s="1">
         <v>753</v>
       </c>
@@ -19899,7 +19911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A755" s="1">
         <v>754</v>
       </c>
@@ -19910,7 +19922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A756" s="1">
         <v>755</v>
       </c>
@@ -19936,7 +19948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A757" s="1">
         <v>756</v>
       </c>
@@ -19962,7 +19974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A758" s="1">
         <v>757</v>
       </c>
@@ -19988,7 +20000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A759" s="1">
         <v>758</v>
       </c>
@@ -19999,7 +20011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A760" s="1">
         <v>759</v>
       </c>
@@ -20025,7 +20037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A761" s="1">
         <v>760</v>
       </c>
@@ -20051,7 +20063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A762" s="1">
         <v>761</v>
       </c>
@@ -20077,7 +20089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A763" s="1">
         <v>762</v>
       </c>
@@ -20103,7 +20115,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A764" s="1">
         <v>763</v>
       </c>
@@ -20129,7 +20141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A765" s="1">
         <v>764</v>
       </c>
@@ -20140,7 +20152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A766" s="1">
         <v>765</v>
       </c>
@@ -20166,7 +20178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A767" s="1">
         <v>766</v>
       </c>
@@ -20192,7 +20204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A768" s="1">
         <v>767</v>
       </c>
@@ -20218,7 +20230,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A769" s="1">
         <v>768</v>
       </c>
@@ -20244,7 +20256,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A770" s="1">
         <v>769</v>
       </c>
@@ -20255,7 +20267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A771" s="1">
         <v>770</v>
       </c>
@@ -20281,7 +20293,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A772" s="1">
         <v>771</v>
       </c>
@@ -20307,7 +20319,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A773" s="1">
         <v>772</v>
       </c>
@@ -20333,7 +20345,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A774" s="1">
         <v>773</v>
       </c>
@@ -20359,7 +20371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A775" s="1">
         <v>774</v>
       </c>
@@ -20385,7 +20397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A776" s="1">
         <v>775</v>
       </c>
@@ -20411,7 +20423,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A777" s="1">
         <v>776</v>
       </c>
@@ -20437,7 +20449,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A778" s="1">
         <v>777</v>
       </c>
@@ -20463,7 +20475,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A779" s="1">
         <v>778</v>
       </c>
@@ -20474,7 +20486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A780" s="1">
         <v>779</v>
       </c>
@@ -20500,7 +20512,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A781" s="1">
         <v>780</v>
       </c>
@@ -20526,7 +20538,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A782" s="1">
         <v>781</v>
       </c>
@@ -20537,7 +20549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A783" s="1">
         <v>782</v>
       </c>
@@ -20563,7 +20575,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A784" s="1">
         <v>783</v>
       </c>
@@ -20589,7 +20601,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A785" s="1">
         <v>784</v>
       </c>
@@ -20615,7 +20627,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A786" s="1">
         <v>785</v>
       </c>
@@ -20641,7 +20653,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A787" s="1">
         <v>786</v>
       </c>
@@ -20667,7 +20679,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A788" s="1">
         <v>787</v>
       </c>
@@ -20693,7 +20705,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A789" s="1">
         <v>788</v>
       </c>
@@ -20719,7 +20731,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A790" s="1">
         <v>789</v>
       </c>
@@ -20745,7 +20757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A791" s="1">
         <v>790</v>
       </c>
@@ -20771,7 +20783,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A792" s="1">
         <v>791</v>
       </c>
@@ -20797,7 +20809,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A793" s="1">
         <v>792</v>
       </c>
@@ -20823,7 +20835,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A794" s="1">
         <v>793</v>
       </c>
@@ -20849,7 +20861,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A795" s="1">
         <v>794</v>
       </c>
@@ -20875,7 +20887,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A796" s="1">
         <v>795</v>
       </c>
@@ -20901,7 +20913,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A797" s="1">
         <v>796</v>
       </c>
@@ -20927,7 +20939,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A798" s="1">
         <v>797</v>
       </c>
@@ -20953,7 +20965,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A799" s="1">
         <v>798</v>
       </c>
@@ -20964,7 +20976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A800" s="1">
         <v>799</v>
       </c>
@@ -20990,7 +21002,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A801" s="1">
         <v>800</v>
       </c>
@@ -21016,7 +21028,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A802" s="1">
         <v>801</v>
       </c>
@@ -21027,7 +21039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A803" s="1">
         <v>802</v>
       </c>
@@ -21053,7 +21065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="804" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A804" s="1">
         <v>803</v>
       </c>
@@ -21079,7 +21091,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A805" s="1">
         <v>804</v>
       </c>
@@ -21090,7 +21102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A806" s="1">
         <v>805</v>
       </c>
@@ -21101,7 +21113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A807" s="1">
         <v>806</v>
       </c>
@@ -21127,7 +21139,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A808" s="1">
         <v>807</v>
       </c>
@@ -21153,7 +21165,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A809" s="1">
         <v>808</v>
       </c>
@@ -21164,7 +21176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="810" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A810" s="1">
         <v>809</v>
       </c>
@@ -21190,7 +21202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="811" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A811" s="1">
         <v>810</v>
       </c>
@@ -21216,7 +21228,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="812" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A812" s="1">
         <v>811</v>
       </c>
@@ -21242,7 +21254,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="813" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A813" s="1">
         <v>812</v>
       </c>
@@ -21268,7 +21280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="814" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A814" s="1">
         <v>813</v>
       </c>
@@ -21279,7 +21291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="815" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A815" s="1">
         <v>814</v>
       </c>
@@ -21305,7 +21317,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="816" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A816" s="1">
         <v>815</v>
       </c>
@@ -21331,7 +21343,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A817" s="1">
         <v>816</v>
       </c>
@@ -21342,7 +21354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A818" s="1">
         <v>817</v>
       </c>
@@ -21368,7 +21380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A819" s="1">
         <v>818</v>
       </c>
@@ -21394,7 +21406,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A820" s="1">
         <v>819</v>
       </c>
@@ -21420,7 +21432,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A821" s="1">
         <v>820</v>
       </c>
@@ -21446,7 +21458,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A822" s="1">
         <v>821</v>
       </c>
@@ -21472,7 +21484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A823" s="1">
         <v>822</v>
       </c>
@@ -21483,7 +21495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A824" s="1">
         <v>823</v>
       </c>
@@ -21494,7 +21506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A825" s="1">
         <v>824</v>
       </c>
@@ -21520,7 +21532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A826" s="1">
         <v>825</v>
       </c>
@@ -21531,7 +21543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="827" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A827" s="1">
         <v>826</v>
       </c>
@@ -21542,7 +21554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="828" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A828" s="1">
         <v>827</v>
       </c>
@@ -21568,7 +21580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A829" s="1">
         <v>828</v>
       </c>
@@ -21594,7 +21606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A830" s="1">
         <v>829</v>
       </c>
@@ -21620,7 +21632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="831" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A831" s="1">
         <v>830</v>
       </c>
@@ -21646,7 +21658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A832" s="1">
         <v>831</v>
       </c>
@@ -21672,7 +21684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="833" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A833" s="1">
         <v>832</v>
       </c>
@@ -21698,7 +21710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A834" s="1">
         <v>833</v>
       </c>
@@ -21724,7 +21736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A835" s="1">
         <v>834</v>
       </c>
@@ -21750,7 +21762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A836" s="1">
         <v>835</v>
       </c>
@@ -21776,7 +21788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A837" s="1">
         <v>836</v>
       </c>
@@ -21802,7 +21814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A838" s="1">
         <v>837</v>
       </c>
@@ -21828,7 +21840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A839" s="1">
         <v>838</v>
       </c>
